--- a/data/photophysical/AL_1_45/AL_1_45_D_PL.xlsx
+++ b/data/photophysical/AL_1_45/AL_1_45_D_PL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/angelasm_lin_mail_utoronto_ca/Documents/2023 Angela Lin/Coding/spectrometry-visualizer/data/UV_Vis/AL_1_35_all/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\stanlo229\Research\Repos\spectrometry-visualizer\data\photophysical\AL_1_45\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCE6C292-26DF-4D40-AD68-C7B0DBF74C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF64DB5-3B1A-4D04-9F01-70690DE4D04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1740" windowWidth="27240" windowHeight="16260" xr2:uid="{F3B2600E-353A-CC4F-9072-5F260D7F932F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F3B2600E-353A-CC4F-9072-5F260D7F932F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Wavelength (nm)</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Emission AL-1-35L med</t>
+  </si>
+  <si>
+    <t>Emission AL-1-35L low</t>
   </si>
 </sst>
 </file>
@@ -103,9 +109,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -143,7 +149,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -249,7 +255,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -399,2639 +405,6575 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07EBB5D-9CF5-8148-874F-324041586686}">
-  <dimension ref="A1:B328"/>
+  <dimension ref="A1:F328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>525</v>
       </c>
       <c r="B3">
         <v>1310.0969692193801</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>525</v>
+      </c>
+      <c r="D3">
+        <v>1310.0969692193801</v>
+      </c>
+      <c r="E3">
+        <v>525</v>
+      </c>
+      <c r="F3">
+        <v>1310.0969692193801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>526</v>
       </c>
       <c r="B4">
         <v>1600.1446574361401</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>526</v>
+      </c>
+      <c r="D4">
+        <v>1600.1446574361401</v>
+      </c>
+      <c r="E4">
+        <v>526</v>
+      </c>
+      <c r="F4">
+        <v>1600.1446574361401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>527</v>
       </c>
       <c r="B5">
         <v>1610.1464714152701</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>527</v>
+      </c>
+      <c r="D5">
+        <v>1610.1464714152701</v>
+      </c>
+      <c r="E5">
+        <v>527</v>
+      </c>
+      <c r="F5">
+        <v>1610.1464714152701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>528</v>
       </c>
       <c r="B6">
         <v>1750.1730540646399</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>528</v>
+      </c>
+      <c r="D6">
+        <v>1750.1730540646399</v>
+      </c>
+      <c r="E6">
+        <v>528</v>
+      </c>
+      <c r="F6">
+        <v>1750.1730540646399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>529</v>
       </c>
       <c r="B7">
         <v>1490.12544973177</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>529</v>
+      </c>
+      <c r="D7">
+        <v>1490.12544973177</v>
+      </c>
+      <c r="E7">
+        <v>529</v>
+      </c>
+      <c r="F7">
+        <v>1490.12544973177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>530</v>
       </c>
       <c r="B8">
         <v>1430.1155492983</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>530</v>
+      </c>
+      <c r="D8">
+        <v>1430.1155492983</v>
+      </c>
+      <c r="E8">
+        <v>530</v>
+      </c>
+      <c r="F8">
+        <v>1430.1155492983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>531</v>
       </c>
       <c r="B9">
         <v>1290.09403078842</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>531</v>
+      </c>
+      <c r="D9">
+        <v>1290.09403078842</v>
+      </c>
+      <c r="E9">
+        <v>531</v>
+      </c>
+      <c r="F9">
+        <v>1290.09403078842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>532</v>
       </c>
       <c r="B10">
         <v>1480.1237713999899</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>532</v>
+      </c>
+      <c r="D10">
+        <v>1480.1237713999899</v>
+      </c>
+      <c r="E10">
+        <v>532</v>
+      </c>
+      <c r="F10">
+        <v>1480.1237713999899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>533</v>
       </c>
       <c r="B11">
         <v>1620.14829669852</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>533</v>
+      </c>
+      <c r="D11">
+        <v>1620.14829669852</v>
+      </c>
+      <c r="E11">
+        <v>533</v>
+      </c>
+      <c r="F11">
+        <v>1620.14829669852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>534</v>
       </c>
       <c r="B12">
         <v>1450.1188042272499</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>534</v>
+      </c>
+      <c r="D12">
+        <v>1450.1188042272499</v>
+      </c>
+      <c r="E12">
+        <v>534</v>
+      </c>
+      <c r="F12">
+        <v>1450.1188042272499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>535</v>
       </c>
       <c r="B13">
         <v>1870.19760268713</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>535</v>
+      </c>
+      <c r="D13">
+        <v>1870.19760268713</v>
+      </c>
+      <c r="E13">
+        <v>535</v>
+      </c>
+      <c r="F13">
+        <v>1870.19760268713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>536</v>
       </c>
       <c r="B14">
         <v>1470.122104372</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>536</v>
+      </c>
+      <c r="D14">
+        <v>1470.122104372</v>
+      </c>
+      <c r="E14">
+        <v>536</v>
+      </c>
+      <c r="F14">
+        <v>1470.122104372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>537</v>
       </c>
       <c r="B15">
         <v>1380.10760978695</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>537</v>
+      </c>
+      <c r="D15">
+        <v>1380.10760978695</v>
+      </c>
+      <c r="E15">
+        <v>537</v>
+      </c>
+      <c r="F15">
+        <v>1380.10760978695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>538</v>
       </c>
       <c r="B16">
         <v>1240.08688251578</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>538</v>
+      </c>
+      <c r="D16">
+        <v>1240.08688251578</v>
+      </c>
+      <c r="E16">
+        <v>538</v>
+      </c>
+      <c r="F16">
+        <v>1240.08688251578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>539</v>
       </c>
       <c r="B17">
         <v>1310.0969692193801</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>539</v>
+      </c>
+      <c r="D17">
+        <v>1310.0969692193801</v>
+      </c>
+      <c r="E17">
+        <v>539</v>
+      </c>
+      <c r="F17">
+        <v>1310.0969692193801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>540</v>
       </c>
       <c r="B18">
         <v>1250.0882895638699</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>540</v>
+      </c>
+      <c r="D18">
+        <v>1250.0882895638699</v>
+      </c>
+      <c r="E18">
+        <v>540</v>
+      </c>
+      <c r="F18">
+        <v>1250.0882895638699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>541</v>
       </c>
       <c r="B19">
         <v>1750.1730540646399</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>541</v>
+      </c>
+      <c r="D19">
+        <v>1750.1730540646399</v>
+      </c>
+      <c r="E19">
+        <v>541</v>
+      </c>
+      <c r="F19">
+        <v>1750.1730540646399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>542</v>
       </c>
       <c r="B20">
         <v>1610.1464714152701</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>542</v>
+      </c>
+      <c r="D20">
+        <v>1610.1464714152701</v>
+      </c>
+      <c r="E20">
+        <v>542</v>
+      </c>
+      <c r="F20">
+        <v>1610.1464714152701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>543</v>
       </c>
       <c r="B21">
         <v>1410.11233958298</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>543</v>
+      </c>
+      <c r="D21">
+        <v>1410.11233958298</v>
+      </c>
+      <c r="E21">
+        <v>543</v>
+      </c>
+      <c r="F21">
+        <v>1410.11233958298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>544</v>
       </c>
       <c r="B22">
         <v>1830.18923893904</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>544</v>
+      </c>
+      <c r="D22">
+        <v>1830.18923893904</v>
+      </c>
+      <c r="E22">
+        <v>544</v>
+      </c>
+      <c r="F22">
+        <v>1830.18923893904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>545</v>
       </c>
       <c r="B23">
         <v>1300.0954943517499</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>545</v>
+      </c>
+      <c r="D23">
+        <v>1300.0954943517499</v>
+      </c>
+      <c r="E23">
+        <v>545</v>
+      </c>
+      <c r="F23">
+        <v>1300.0954943517499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>546</v>
       </c>
       <c r="B24">
         <v>1670.1575926763501</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>546</v>
+      </c>
+      <c r="D24">
+        <v>1670.1575926763501</v>
+      </c>
+      <c r="E24">
+        <v>546</v>
+      </c>
+      <c r="F24">
+        <v>1670.1575926763501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>547</v>
       </c>
       <c r="B25">
         <v>1510.1288403057699</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>547</v>
+      </c>
+      <c r="D25">
+        <v>1510.1288403057699</v>
+      </c>
+      <c r="E25">
+        <v>547</v>
+      </c>
+      <c r="F25">
+        <v>1510.1288403057699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>548</v>
       </c>
       <c r="B26">
         <v>1750.1730540646399</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>548</v>
+      </c>
+      <c r="D26">
+        <v>1750.1730540646399</v>
+      </c>
+      <c r="E26">
+        <v>548</v>
+      </c>
+      <c r="F26">
+        <v>1750.1730540646399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>549</v>
       </c>
       <c r="B27">
         <v>1650.15384037221</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>549</v>
+      </c>
+      <c r="D27">
+        <v>1650.15384037221</v>
+      </c>
+      <c r="E27">
+        <v>549</v>
+      </c>
+      <c r="F27">
+        <v>1650.15384037221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>550</v>
       </c>
       <c r="B28">
         <v>2030.23286646214</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>550</v>
+      </c>
+      <c r="D28">
+        <v>2030.23286646214</v>
+      </c>
+      <c r="E28">
+        <v>550</v>
+      </c>
+      <c r="F28">
+        <v>2030.23286646214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>551</v>
       </c>
       <c r="B29">
         <v>1830.18923893904</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>551</v>
+      </c>
+      <c r="D29">
+        <v>1830.18923893904</v>
+      </c>
+      <c r="E29">
+        <v>551</v>
+      </c>
+      <c r="F29">
+        <v>1830.18923893904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>552</v>
       </c>
       <c r="B30">
         <v>1840.1913129192301</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>552</v>
+      </c>
+      <c r="D30">
+        <v>1840.1913129192301</v>
+      </c>
+      <c r="E30">
+        <v>552</v>
+      </c>
+      <c r="F30">
+        <v>1840.1913129192301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>553</v>
       </c>
       <c r="B31">
         <v>2130.2563759893001</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>553</v>
+      </c>
+      <c r="D31">
+        <v>2130.2563759893001</v>
+      </c>
+      <c r="E31">
+        <v>553</v>
+      </c>
+      <c r="F31">
+        <v>2130.2563759893001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>554</v>
       </c>
       <c r="B32">
         <v>2590.3790816156402</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>554</v>
+      </c>
+      <c r="D32">
+        <v>2590.3790816156402</v>
+      </c>
+      <c r="E32">
+        <v>554</v>
+      </c>
+      <c r="F32">
+        <v>2590.3790816156402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>555</v>
       </c>
       <c r="B33">
         <v>2290.29634277386</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>555</v>
+      </c>
+      <c r="D33">
+        <v>2290.29634277386</v>
+      </c>
+      <c r="E33">
+        <v>555</v>
+      </c>
+      <c r="F33">
+        <v>2290.29634277386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>556</v>
       </c>
       <c r="B34">
         <v>2160.2636493017098</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>556</v>
+      </c>
+      <c r="D34">
+        <v>2160.2636493017098</v>
+      </c>
+      <c r="E34">
+        <v>556</v>
+      </c>
+      <c r="F34">
+        <v>2160.2636493017098</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>557</v>
       </c>
       <c r="B35">
         <v>2530.3617197931198</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>557</v>
+      </c>
+      <c r="D35">
+        <v>2530.3617197931198</v>
+      </c>
+      <c r="E35">
+        <v>557</v>
+      </c>
+      <c r="F35">
+        <v>2530.3617197931198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>558</v>
       </c>
       <c r="B36">
         <v>2510.3560229706</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>558</v>
+      </c>
+      <c r="D36">
+        <v>2510.3560229706</v>
+      </c>
+      <c r="E36">
+        <v>558</v>
+      </c>
+      <c r="F36">
+        <v>2510.3560229706</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>559</v>
       </c>
       <c r="B37">
         <v>2220.2785011771898</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>559</v>
+      </c>
+      <c r="D37">
+        <v>2220.2785011771898</v>
+      </c>
+      <c r="E37">
+        <v>559</v>
+      </c>
+      <c r="F37">
+        <v>2220.2785011771898</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>560</v>
       </c>
       <c r="B38">
         <v>3080.5361059944398</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>560</v>
+      </c>
+      <c r="D38">
+        <v>3080.5361059944398</v>
+      </c>
+      <c r="E38">
+        <v>560</v>
+      </c>
+      <c r="F38">
+        <v>3080.5361059944398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>561</v>
       </c>
       <c r="B39">
         <v>3190.5750878549502</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>561</v>
+      </c>
+      <c r="D39">
+        <v>3190.5750878549502</v>
+      </c>
+      <c r="E39">
+        <v>561</v>
+      </c>
+      <c r="F39">
+        <v>3190.5750878549502</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>562</v>
       </c>
       <c r="B40">
         <v>3040.5222700105901</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>562</v>
+      </c>
+      <c r="D40">
+        <v>3040.5222700105901</v>
+      </c>
+      <c r="E40">
+        <v>562</v>
+      </c>
+      <c r="F40">
+        <v>3040.5222700105901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>563</v>
       </c>
       <c r="B41">
         <v>3050.5257120441001</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>563</v>
+      </c>
+      <c r="D41">
+        <v>3050.5257120441001</v>
+      </c>
+      <c r="E41">
+        <v>563</v>
+      </c>
+      <c r="F41">
+        <v>3050.5257120441001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>564</v>
       </c>
       <c r="B42">
         <v>3330.6266800634098</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>564</v>
+      </c>
+      <c r="D42">
+        <v>3330.6266800634098</v>
+      </c>
+      <c r="E42">
+        <v>564</v>
+      </c>
+      <c r="F42">
+        <v>3330.6266800634098</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>565</v>
       </c>
       <c r="B43">
         <v>3220.5859567417301</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>565</v>
+      </c>
+      <c r="D43">
+        <v>3220.5859567417301</v>
+      </c>
+      <c r="E43">
+        <v>565</v>
+      </c>
+      <c r="F43">
+        <v>3220.5859567417301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>566</v>
       </c>
       <c r="B44">
         <v>4251.0208581074703</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>566</v>
+      </c>
+      <c r="D44">
+        <v>4251.0208581074703</v>
+      </c>
+      <c r="E44">
+        <v>566</v>
+      </c>
+      <c r="F44">
+        <v>4251.0208581074703</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>567</v>
       </c>
       <c r="B45">
         <v>3890.8552142763901</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>567</v>
+      </c>
+      <c r="D45">
+        <v>3890.8552142763901</v>
+      </c>
+      <c r="E45">
+        <v>567</v>
+      </c>
+      <c r="F45">
+        <v>3890.8552142763901</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>568</v>
       </c>
       <c r="B46">
         <v>4251.0208581074703</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>568</v>
+      </c>
+      <c r="D46">
+        <v>4251.0208581074703</v>
+      </c>
+      <c r="E46">
+        <v>568</v>
+      </c>
+      <c r="F46">
+        <v>4251.0208581074703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>569</v>
       </c>
       <c r="B47">
         <v>4411.09918283561</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>569</v>
+      </c>
+      <c r="D47">
+        <v>4411.09918283561</v>
+      </c>
+      <c r="E47">
+        <v>569</v>
+      </c>
+      <c r="F47">
+        <v>4411.09918283561</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>570</v>
       </c>
       <c r="B48">
         <v>4481.1343604551703</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>570</v>
+      </c>
+      <c r="D48">
+        <v>4481.1343604551703</v>
+      </c>
+      <c r="E48">
+        <v>570</v>
+      </c>
+      <c r="F48">
+        <v>4481.1343604551703</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>571</v>
       </c>
       <c r="B49">
         <v>4861.3349961915201</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>571</v>
+      </c>
+      <c r="D49">
+        <v>4861.3349961915201</v>
+      </c>
+      <c r="E49">
+        <v>571</v>
+      </c>
+      <c r="F49">
+        <v>4861.3349961915201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>572</v>
       </c>
       <c r="B50">
         <v>6092.0964395095898</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>572</v>
+      </c>
+      <c r="D50">
+        <v>6092.0964395095898</v>
+      </c>
+      <c r="E50">
+        <v>572</v>
+      </c>
+      <c r="F50">
+        <v>6092.0964395095898</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>573</v>
       </c>
       <c r="B51">
         <v>5831.9212166820798</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>573</v>
+      </c>
+      <c r="D51">
+        <v>5831.9212166820798</v>
+      </c>
+      <c r="E51">
+        <v>573</v>
+      </c>
+      <c r="F51">
+        <v>5831.9212166820798</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>574</v>
       </c>
       <c r="B52">
         <v>6132.1240757911401</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>574</v>
+      </c>
+      <c r="D52">
+        <v>6132.1240757911401</v>
+      </c>
+      <c r="E52">
+        <v>574</v>
+      </c>
+      <c r="F52">
+        <v>6132.1240757911401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>575</v>
       </c>
       <c r="B53">
         <v>6582.4474598646202</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>575</v>
+      </c>
+      <c r="D53">
+        <v>6582.4474598646202</v>
+      </c>
+      <c r="E53">
+        <v>575</v>
+      </c>
+      <c r="F53">
+        <v>6582.4474598646202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>576</v>
       </c>
       <c r="B54">
         <v>6462.3589834772001</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>576</v>
+      </c>
+      <c r="D54">
+        <v>6462.3589834772001</v>
+      </c>
+      <c r="E54">
+        <v>576</v>
+      </c>
+      <c r="F54">
+        <v>6462.3589834772001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>577</v>
       </c>
       <c r="B55">
         <v>7202.9305496376701</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>577</v>
+      </c>
+      <c r="D55">
+        <v>7202.9305496376701</v>
+      </c>
+      <c r="E55">
+        <v>577</v>
+      </c>
+      <c r="F55">
+        <v>7202.9305496376701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>578</v>
       </c>
       <c r="B56">
         <v>7953.5730813291102</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>578</v>
+      </c>
+      <c r="D56">
+        <v>7953.5730813291102</v>
+      </c>
+      <c r="E56">
+        <v>578</v>
+      </c>
+      <c r="F56">
+        <v>7953.5730813291102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>579</v>
       </c>
       <c r="B57">
         <v>8884.4582562443193</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>579</v>
+      </c>
+      <c r="D57">
+        <v>8884.4582562443193</v>
+      </c>
+      <c r="E57">
+        <v>579</v>
+      </c>
+      <c r="F57">
+        <v>8884.4582562443193</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>580</v>
       </c>
       <c r="B58">
         <v>9865.4969908705498</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>580</v>
+      </c>
+      <c r="D58">
+        <v>9865.4969908705498</v>
+      </c>
+      <c r="E58">
+        <v>580</v>
+      </c>
+      <c r="F58">
+        <v>9865.4969908705498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>581</v>
       </c>
       <c r="B59">
         <v>10426.139386327401</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>581</v>
+      </c>
+      <c r="D59">
+        <v>10426.139386327401</v>
+      </c>
+      <c r="E59">
+        <v>581</v>
+      </c>
+      <c r="F59">
+        <v>10426.139386327401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>582</v>
       </c>
       <c r="B60">
         <v>10786.5711114977</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>582</v>
+      </c>
+      <c r="D60">
+        <v>10786.5711114977</v>
+      </c>
+      <c r="E60">
+        <v>582</v>
+      </c>
+      <c r="F60">
+        <v>10786.5711114977</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>583</v>
       </c>
       <c r="B61">
         <v>13079.661120425701</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>583</v>
+      </c>
+      <c r="D61">
+        <v>13079.661120425701</v>
+      </c>
+      <c r="E61">
+        <v>583</v>
+      </c>
+      <c r="F61">
+        <v>13079.661120425701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>584</v>
       </c>
       <c r="B62">
         <v>13289.974229334301</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>584</v>
+      </c>
+      <c r="D62">
+        <v>13289.974229334301</v>
+      </c>
+      <c r="E62">
+        <v>584</v>
+      </c>
+      <c r="F62">
+        <v>13289.974229334301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>585</v>
       </c>
       <c r="B63">
         <v>15503.572455842001</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>585</v>
+      </c>
+      <c r="D63">
+        <v>15503.572455842001</v>
+      </c>
+      <c r="E63">
+        <v>585</v>
+      </c>
+      <c r="F63">
+        <v>15503.572455842001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>586</v>
       </c>
       <c r="B64">
         <v>17226.756129271998</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>586</v>
+      </c>
+      <c r="D64">
+        <v>17226.756129271998</v>
+      </c>
+      <c r="E64">
+        <v>586</v>
+      </c>
+      <c r="F64">
+        <v>17226.756129271998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>587</v>
       </c>
       <c r="B65">
         <v>18108.5147534887</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>587</v>
+      </c>
+      <c r="D65">
+        <v>18108.5147534887</v>
+      </c>
+      <c r="E65">
+        <v>587</v>
+      </c>
+      <c r="F65">
+        <v>18108.5147534887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>588</v>
       </c>
       <c r="B66">
         <v>19591.670601134101</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>588</v>
+      </c>
+      <c r="D66">
+        <v>19591.670601134101</v>
+      </c>
+      <c r="E66">
+        <v>588</v>
+      </c>
+      <c r="F66">
+        <v>19591.670601134101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>589</v>
       </c>
       <c r="B67">
         <v>21766.747273637899</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>589</v>
+      </c>
+      <c r="D67">
+        <v>21766.747273637899</v>
+      </c>
+      <c r="E67">
+        <v>589</v>
+      </c>
+      <c r="F67">
+        <v>21766.747273637899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>590</v>
       </c>
       <c r="B68">
         <v>24263.2314209088</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>590</v>
+      </c>
+      <c r="D68">
+        <v>24263.2314209088</v>
+      </c>
+      <c r="E68">
+        <v>590</v>
+      </c>
+      <c r="F68">
+        <v>24263.2314209088</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>591</v>
       </c>
       <c r="B69">
         <v>27131.548360377801</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>591</v>
+      </c>
+      <c r="D69">
+        <v>27131.548360377801</v>
+      </c>
+      <c r="E69">
+        <v>591</v>
+      </c>
+      <c r="F69">
+        <v>27131.548360377801</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>592</v>
       </c>
       <c r="B70">
         <v>29739.916205834801</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>592</v>
+      </c>
+      <c r="D70">
+        <v>29739.916205834801</v>
+      </c>
+      <c r="E70">
+        <v>592</v>
+      </c>
+      <c r="F70">
+        <v>29739.916205834801</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>593</v>
       </c>
       <c r="B71">
         <v>32860.935574339303</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>593</v>
+      </c>
+      <c r="D71">
+        <v>32860.935574339303</v>
+      </c>
+      <c r="E71">
+        <v>593</v>
+      </c>
+      <c r="F71">
+        <v>32860.935574339303</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>594</v>
       </c>
       <c r="B72">
         <v>36264.201324802598</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>594</v>
+      </c>
+      <c r="D72">
+        <v>36264.201324802598</v>
+      </c>
+      <c r="E72">
+        <v>594</v>
+      </c>
+      <c r="F72">
+        <v>36264.201324802598</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>595</v>
       </c>
       <c r="B73">
         <v>39578.372494158197</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>595</v>
+      </c>
+      <c r="D73">
+        <v>39578.372494158197</v>
+      </c>
+      <c r="E73">
+        <v>595</v>
+      </c>
+      <c r="F73">
+        <v>39578.372494158197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>596</v>
       </c>
       <c r="B74">
         <v>43697.7088152668</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>596</v>
+      </c>
+      <c r="D74">
+        <v>43697.7088152668</v>
+      </c>
+      <c r="E74">
+        <v>596</v>
+      </c>
+      <c r="F74">
+        <v>43697.7088152668</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>597</v>
       </c>
       <c r="B75">
         <v>48884.770955464701</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>597</v>
+      </c>
+      <c r="D75">
+        <v>48884.770955464701</v>
+      </c>
+      <c r="E75">
+        <v>597</v>
+      </c>
+      <c r="F75">
+        <v>48884.770955464701</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>598</v>
       </c>
       <c r="B76">
         <v>52746.884357741699</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>598</v>
+      </c>
+      <c r="D76">
+        <v>52746.884357741699</v>
+      </c>
+      <c r="E76">
+        <v>598</v>
+      </c>
+      <c r="F76">
+        <v>52746.884357741699</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>599</v>
       </c>
       <c r="B77">
         <v>56731.454920405697</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>599</v>
+      </c>
+      <c r="D77">
+        <v>56731.454920405697</v>
+      </c>
+      <c r="E77">
+        <v>599</v>
+      </c>
+      <c r="F77">
+        <v>56731.454920405697</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>600</v>
       </c>
       <c r="B78">
         <v>63497.258588379598</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>600</v>
+      </c>
+      <c r="D78">
+        <v>63497.258588379598</v>
+      </c>
+      <c r="E78">
+        <v>600</v>
+      </c>
+      <c r="F78">
+        <v>63497.258588379598</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>601</v>
       </c>
       <c r="B79">
         <v>70298.478122794098</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>601</v>
+      </c>
+      <c r="D79">
+        <v>70298.478122794098</v>
+      </c>
+      <c r="E79">
+        <v>601</v>
+      </c>
+      <c r="F79">
+        <v>70298.478122794098</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>602</v>
       </c>
       <c r="B80">
         <v>77478.174385096499</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>602</v>
+      </c>
+      <c r="D80">
+        <v>77478.174385096499</v>
+      </c>
+      <c r="E80">
+        <v>602</v>
+      </c>
+      <c r="F80">
+        <v>77478.174385096499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>603</v>
       </c>
       <c r="B81">
         <v>83442.152998758902</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>603</v>
+      </c>
+      <c r="D81">
+        <v>83442.152998758902</v>
+      </c>
+      <c r="E81">
+        <v>603</v>
+      </c>
+      <c r="F81">
+        <v>83442.152998758902</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>604</v>
       </c>
       <c r="B82">
         <v>90763.864265941098</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>604</v>
+      </c>
+      <c r="D82">
+        <v>90763.864265941098</v>
+      </c>
+      <c r="E82">
+        <v>604</v>
+      </c>
+      <c r="F82">
+        <v>90763.864265941098</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>605</v>
       </c>
       <c r="B83">
         <v>98728.683109512902</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>605</v>
+      </c>
+      <c r="D83">
+        <v>98728.683109512902</v>
+      </c>
+      <c r="E83">
+        <v>605</v>
+      </c>
+      <c r="F83">
+        <v>98728.683109512902</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>606</v>
       </c>
       <c r="B84">
         <v>109990.71145338099</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>606</v>
+      </c>
+      <c r="D84">
+        <v>109990.71145338099</v>
+      </c>
+      <c r="E84">
+        <v>606</v>
+      </c>
+      <c r="F84">
+        <v>109990.71145338099</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>607</v>
       </c>
       <c r="B85">
         <v>120010.070602227</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>607</v>
+      </c>
+      <c r="D85">
+        <v>120010.070602227</v>
+      </c>
+      <c r="E85">
+        <v>607</v>
+      </c>
+      <c r="F85">
+        <v>120010.070602227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>608</v>
       </c>
       <c r="B86">
         <v>130030.63837894</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>608</v>
+      </c>
+      <c r="D86">
+        <v>130030.63837894</v>
+      </c>
+      <c r="E86">
+        <v>608</v>
+      </c>
+      <c r="F86">
+        <v>130030.63837894</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>609</v>
       </c>
       <c r="B87">
         <v>143537.80702497601</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <v>609</v>
+      </c>
+      <c r="D87">
+        <v>143537.80702497601</v>
+      </c>
+      <c r="E87">
+        <v>609</v>
+      </c>
+      <c r="F87">
+        <v>143537.80702497601</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>610</v>
       </c>
       <c r="B88">
         <v>156678.82716552299</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>610</v>
+      </c>
+      <c r="D88">
+        <v>156678.82716552299</v>
+      </c>
+      <c r="E88">
+        <v>610</v>
+      </c>
+      <c r="F88">
+        <v>156678.82716552299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>611</v>
       </c>
       <c r="B89">
         <v>171021.94645205801</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <v>611</v>
+      </c>
+      <c r="D89">
+        <v>171021.94645205801</v>
+      </c>
+      <c r="E89">
+        <v>611</v>
+      </c>
+      <c r="F89">
+        <v>171021.94645205801</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>612</v>
       </c>
       <c r="B90">
         <v>189218.56612666199</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>612</v>
+      </c>
+      <c r="D90">
+        <v>189218.56612666199</v>
+      </c>
+      <c r="E90">
+        <v>612</v>
+      </c>
+      <c r="F90">
+        <v>189218.56612666199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>613</v>
       </c>
       <c r="B91">
         <v>203901.08669530699</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>613</v>
+      </c>
+      <c r="D91">
+        <v>203901.08669530699</v>
+      </c>
+      <c r="E91">
+        <v>613</v>
+      </c>
+      <c r="F91">
+        <v>203901.08669530699</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>614</v>
       </c>
       <c r="B92">
         <v>220832.559909776</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <v>614</v>
+      </c>
+      <c r="D92">
+        <v>220832.559909776</v>
+      </c>
+      <c r="E92">
+        <v>614</v>
+      </c>
+      <c r="F92">
+        <v>220832.559909776</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>615</v>
       </c>
       <c r="B93">
         <v>240878.732035102</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>615</v>
+      </c>
+      <c r="D93">
+        <v>240878.732035102</v>
+      </c>
+      <c r="E93">
+        <v>615</v>
+      </c>
+      <c r="F93">
+        <v>240878.732035102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>616</v>
       </c>
       <c r="B94">
         <v>263669.24110944697</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <v>616</v>
+      </c>
+      <c r="D94">
+        <v>263669.24110944697</v>
+      </c>
+      <c r="E94">
+        <v>616</v>
+      </c>
+      <c r="F94">
+        <v>263669.24110944697</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>617</v>
       </c>
       <c r="B95">
         <v>286570.24025785399</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <v>617</v>
+      </c>
+      <c r="D95">
+        <v>286570.24025785399</v>
+      </c>
+      <c r="E95">
+        <v>617</v>
+      </c>
+      <c r="F95">
+        <v>286570.24025785399</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>618</v>
       </c>
       <c r="B96">
         <v>313176.70509229699</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <v>618</v>
+      </c>
+      <c r="D96">
+        <v>313176.70509229699</v>
+      </c>
+      <c r="E96">
+        <v>618</v>
+      </c>
+      <c r="F96">
+        <v>313176.70509229699</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>619</v>
       </c>
       <c r="B97">
         <v>333090.72851268097</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>619</v>
+      </c>
+      <c r="D97">
+        <v>333090.72851268097</v>
+      </c>
+      <c r="E97">
+        <v>619</v>
+      </c>
+      <c r="F97">
+        <v>333090.72851268097</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>620</v>
       </c>
       <c r="B98">
         <v>362441.77127928502</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>620</v>
+      </c>
+      <c r="D98">
+        <v>362441.77127928502</v>
+      </c>
+      <c r="E98">
+        <v>620</v>
+      </c>
+      <c r="F98">
+        <v>362441.77127928502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>621</v>
       </c>
       <c r="B99">
         <v>387919.31752425502</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <v>621</v>
+      </c>
+      <c r="D99">
+        <v>387919.31752425502</v>
+      </c>
+      <c r="E99">
+        <v>621</v>
+      </c>
+      <c r="F99">
+        <v>387919.31752425502</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>622</v>
       </c>
       <c r="B100">
         <v>416530.61959923198</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>622</v>
+      </c>
+      <c r="D100">
+        <v>416530.61959923198</v>
+      </c>
+      <c r="E100">
+        <v>622</v>
+      </c>
+      <c r="F100">
+        <v>416530.61959923198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>623</v>
       </c>
       <c r="B101">
         <v>441901.78434882098</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <v>623</v>
+      </c>
+      <c r="D101">
+        <v>441901.78434882098</v>
+      </c>
+      <c r="E101">
+        <v>623</v>
+      </c>
+      <c r="F101">
+        <v>441901.78434882098</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>624</v>
       </c>
       <c r="B102">
         <v>460127.369302187</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <v>624</v>
+      </c>
+      <c r="D102">
+        <v>460127.369302187</v>
+      </c>
+      <c r="E102">
+        <v>624</v>
+      </c>
+      <c r="F102">
+        <v>460127.369302187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>625</v>
       </c>
       <c r="B103">
         <v>479425.06266949099</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <v>625</v>
+      </c>
+      <c r="D103">
+        <v>479425.06266949099</v>
+      </c>
+      <c r="E103">
+        <v>625</v>
+      </c>
+      <c r="F103">
+        <v>479425.06266949099</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>626</v>
       </c>
       <c r="B104">
         <v>493296.867838217</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <v>626</v>
+      </c>
+      <c r="D104">
+        <v>493296.867838217</v>
+      </c>
+      <c r="E104">
+        <v>626</v>
+      </c>
+      <c r="F104">
+        <v>493296.867838217</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>627</v>
       </c>
       <c r="B105">
         <v>498310.01007236203</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <v>627</v>
+      </c>
+      <c r="D105">
+        <v>498310.01007236203</v>
+      </c>
+      <c r="E105">
+        <v>627</v>
+      </c>
+      <c r="F105">
+        <v>498310.01007236203</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>628</v>
       </c>
       <c r="B106">
         <v>506385.65809079801</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <v>628</v>
+      </c>
+      <c r="D106">
+        <v>506385.65809079801</v>
+      </c>
+      <c r="E106">
+        <v>628</v>
+      </c>
+      <c r="F106">
+        <v>506385.65809079801</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>629</v>
       </c>
       <c r="B107">
         <v>510103.14414313203</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <v>629</v>
+      </c>
+      <c r="D107">
+        <v>510103.14414313203</v>
+      </c>
+      <c r="E107">
+        <v>629</v>
+      </c>
+      <c r="F107">
+        <v>510103.14414313203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>630</v>
       </c>
       <c r="B108">
         <v>508736.70707913599</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <v>630</v>
+      </c>
+      <c r="D108">
+        <v>508736.70707913599</v>
+      </c>
+      <c r="E108">
+        <v>630</v>
+      </c>
+      <c r="F108">
+        <v>508736.70707913599</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>631</v>
       </c>
       <c r="B109">
         <v>498394.644442258</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <v>631</v>
+      </c>
+      <c r="D109">
+        <v>498394.644442258</v>
+      </c>
+      <c r="E109">
+        <v>631</v>
+      </c>
+      <c r="F109">
+        <v>498394.644442258</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>632</v>
       </c>
       <c r="B110">
         <v>492102.17074156902</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <v>632</v>
+      </c>
+      <c r="D110">
+        <v>492102.17074156902</v>
+      </c>
+      <c r="E110">
+        <v>632</v>
+      </c>
+      <c r="F110">
+        <v>492102.17074156902</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>633</v>
       </c>
       <c r="B111">
         <v>478886.68767159898</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <v>633</v>
+      </c>
+      <c r="D111">
+        <v>478886.68767159898</v>
+      </c>
+      <c r="E111">
+        <v>633</v>
+      </c>
+      <c r="F111">
+        <v>478886.68767159898</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>634</v>
       </c>
       <c r="B112">
         <v>467282.64239216503</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <v>634</v>
+      </c>
+      <c r="D112">
+        <v>467282.64239216503</v>
+      </c>
+      <c r="E112">
+        <v>634</v>
+      </c>
+      <c r="F112">
+        <v>467282.64239216503</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>635</v>
       </c>
       <c r="B113">
         <v>452725.27590936399</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <v>635</v>
+      </c>
+      <c r="D113">
+        <v>452725.27590936399</v>
+      </c>
+      <c r="E113">
+        <v>635</v>
+      </c>
+      <c r="F113">
+        <v>452725.27590936399</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>636</v>
       </c>
       <c r="B114">
         <v>435502.27457710798</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <v>636</v>
+      </c>
+      <c r="D114">
+        <v>435502.27457710798</v>
+      </c>
+      <c r="E114">
+        <v>636</v>
+      </c>
+      <c r="F114">
+        <v>435502.27457710798</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>637</v>
       </c>
       <c r="B115">
         <v>425203.426114542</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115">
+        <v>637</v>
+      </c>
+      <c r="D115">
+        <v>425203.426114542</v>
+      </c>
+      <c r="E115">
+        <v>637</v>
+      </c>
+      <c r="F115">
+        <v>425203.426114542</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>638</v>
       </c>
       <c r="B116">
         <v>409259.14671788702</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116">
+        <v>638</v>
+      </c>
+      <c r="D116">
+        <v>409259.14671788702</v>
+      </c>
+      <c r="E116">
+        <v>638</v>
+      </c>
+      <c r="F116">
+        <v>409259.14671788702</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>639</v>
       </c>
       <c r="B117">
         <v>389016.43584460998</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <v>639</v>
+      </c>
+      <c r="D117">
+        <v>389016.43584460998</v>
+      </c>
+      <c r="E117">
+        <v>639</v>
+      </c>
+      <c r="F117">
+        <v>389016.43584460998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>640</v>
       </c>
       <c r="B118">
         <v>375661.74312290398</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <v>640</v>
+      </c>
+      <c r="D118">
+        <v>375661.74312290398</v>
+      </c>
+      <c r="E118">
+        <v>640</v>
+      </c>
+      <c r="F118">
+        <v>375661.74312290398</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>641</v>
       </c>
       <c r="B119">
         <v>364671.51738978899</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119">
+        <v>641</v>
+      </c>
+      <c r="D119">
+        <v>364671.51738978899</v>
+      </c>
+      <c r="E119">
+        <v>641</v>
+      </c>
+      <c r="F119">
+        <v>364671.51738978899</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>642</v>
       </c>
       <c r="B120">
         <v>351540.777302003</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <v>642</v>
+      </c>
+      <c r="D120">
+        <v>351540.777302003</v>
+      </c>
+      <c r="E120">
+        <v>642</v>
+      </c>
+      <c r="F120">
+        <v>351540.777302003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>643</v>
       </c>
       <c r="B121">
         <v>338169.74941253301</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121">
+        <v>643</v>
+      </c>
+      <c r="D121">
+        <v>338169.74941253301</v>
+      </c>
+      <c r="E121">
+        <v>643</v>
+      </c>
+      <c r="F121">
+        <v>338169.74941253301</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>644</v>
       </c>
       <c r="B122">
         <v>325648.84177204297</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <v>644</v>
+      </c>
+      <c r="D122">
+        <v>325648.84177204297</v>
+      </c>
+      <c r="E122">
+        <v>644</v>
+      </c>
+      <c r="F122">
+        <v>325648.84177204297</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>645</v>
       </c>
       <c r="B123">
         <v>313570.40244123299</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123">
+        <v>645</v>
+      </c>
+      <c r="D123">
+        <v>313570.40244123299</v>
+      </c>
+      <c r="E123">
+        <v>645</v>
+      </c>
+      <c r="F123">
+        <v>313570.40244123299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>646</v>
       </c>
       <c r="B124">
         <v>305068.36379648099</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124">
+        <v>646</v>
+      </c>
+      <c r="D124">
+        <v>305068.36379648099</v>
+      </c>
+      <c r="E124">
+        <v>646</v>
+      </c>
+      <c r="F124">
+        <v>305068.36379648099</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>647</v>
       </c>
       <c r="B125">
         <v>297060.51680207299</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125">
+        <v>647</v>
+      </c>
+      <c r="D125">
+        <v>297060.51680207299</v>
+      </c>
+      <c r="E125">
+        <v>647</v>
+      </c>
+      <c r="F125">
+        <v>297060.51680207299</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>648</v>
       </c>
       <c r="B126">
         <v>286022.813589342</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126">
+        <v>648</v>
+      </c>
+      <c r="D126">
+        <v>286022.813589342</v>
+      </c>
+      <c r="E126">
+        <v>648</v>
+      </c>
+      <c r="F126">
+        <v>286022.813589342</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>649</v>
       </c>
       <c r="B127">
         <v>277753.56132194202</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127">
+        <v>649</v>
+      </c>
+      <c r="D127">
+        <v>277753.56132194202</v>
+      </c>
+      <c r="E127">
+        <v>649</v>
+      </c>
+      <c r="F127">
+        <v>277753.56132194202</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>650</v>
       </c>
       <c r="B128">
         <v>272905.03548825998</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128">
+        <v>650</v>
+      </c>
+      <c r="D128">
+        <v>272905.03548825998</v>
+      </c>
+      <c r="E128">
+        <v>650</v>
+      </c>
+      <c r="F128">
+        <v>272905.03548825998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>651</v>
       </c>
       <c r="B129">
         <v>261588.39505999899</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129">
+        <v>651</v>
+      </c>
+      <c r="D129">
+        <v>261588.39505999899</v>
+      </c>
+      <c r="E129">
+        <v>651</v>
+      </c>
+      <c r="F129">
+        <v>261588.39505999899</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>652</v>
       </c>
       <c r="B130">
         <v>256522.24198210199</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130">
+        <v>652</v>
+      </c>
+      <c r="D130">
+        <v>256522.24198210199</v>
+      </c>
+      <c r="E130">
+        <v>652</v>
+      </c>
+      <c r="F130">
+        <v>256522.24198210199</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>653</v>
       </c>
       <c r="B131">
         <v>250121.619406176</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131">
+        <v>653</v>
+      </c>
+      <c r="D131">
+        <v>250121.619406176</v>
+      </c>
+      <c r="E131">
+        <v>653</v>
+      </c>
+      <c r="F131">
+        <v>250121.619406176</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>654</v>
       </c>
       <c r="B132">
         <v>242183.87154169599</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132">
+        <v>654</v>
+      </c>
+      <c r="D132">
+        <v>242183.87154169599</v>
+      </c>
+      <c r="E132">
+        <v>654</v>
+      </c>
+      <c r="F132">
+        <v>242183.87154169599</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>655</v>
       </c>
       <c r="B133">
         <v>240580.73504598401</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C133">
+        <v>655</v>
+      </c>
+      <c r="D133">
+        <v>240580.73504598401</v>
+      </c>
+      <c r="E133">
+        <v>655</v>
+      </c>
+      <c r="F133">
+        <v>240580.73504598401</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>656</v>
       </c>
       <c r="B134">
         <v>233431.816047217</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134">
+        <v>656</v>
+      </c>
+      <c r="D134">
+        <v>233431.816047217</v>
+      </c>
+      <c r="E134">
+        <v>656</v>
+      </c>
+      <c r="F134">
+        <v>233431.816047217</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>657</v>
       </c>
       <c r="B135">
         <v>227786.60876644301</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135">
+        <v>657</v>
+      </c>
+      <c r="D135">
+        <v>227786.60876644301</v>
+      </c>
+      <c r="E135">
+        <v>657</v>
+      </c>
+      <c r="F135">
+        <v>227786.60876644301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>658</v>
       </c>
       <c r="B136">
         <v>225632.11561318801</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136">
+        <v>658</v>
+      </c>
+      <c r="D136">
+        <v>225632.11561318801</v>
+      </c>
+      <c r="E136">
+        <v>658</v>
+      </c>
+      <c r="F136">
+        <v>225632.11561318801</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>659</v>
       </c>
       <c r="B137">
         <v>220883.823460174</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137">
+        <v>659</v>
+      </c>
+      <c r="D137">
+        <v>220883.823460174</v>
+      </c>
+      <c r="E137">
+        <v>659</v>
+      </c>
+      <c r="F137">
+        <v>220883.823460174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>660</v>
       </c>
       <c r="B138">
         <v>216824.66958665501</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138">
+        <v>660</v>
+      </c>
+      <c r="D138">
+        <v>216824.66958665501</v>
+      </c>
+      <c r="E138">
+        <v>660</v>
+      </c>
+      <c r="F138">
+        <v>216824.66958665501</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>661</v>
       </c>
       <c r="B139">
         <v>213545.90486718601</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139">
+        <v>661</v>
+      </c>
+      <c r="D139">
+        <v>213545.90486718601</v>
+      </c>
+      <c r="E139">
+        <v>661</v>
+      </c>
+      <c r="F139">
+        <v>213545.90486718601</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>662</v>
       </c>
       <c r="B140">
         <v>213976.17348601899</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140">
+        <v>662</v>
+      </c>
+      <c r="D140">
+        <v>213976.17348601899</v>
+      </c>
+      <c r="E140">
+        <v>662</v>
+      </c>
+      <c r="F140">
+        <v>213976.17348601899</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>663</v>
       </c>
       <c r="B141">
         <v>210780.39171928799</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141">
+        <v>663</v>
+      </c>
+      <c r="D141">
+        <v>210780.39171928799</v>
+      </c>
+      <c r="E141">
+        <v>663</v>
+      </c>
+      <c r="F141">
+        <v>210780.39171928799</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>664</v>
       </c>
       <c r="B142">
         <v>205538.531476003</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142">
+        <v>664</v>
+      </c>
+      <c r="D142">
+        <v>205538.531476003</v>
+      </c>
+      <c r="E142">
+        <v>664</v>
+      </c>
+      <c r="F142">
+        <v>205538.531476003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>665</v>
       </c>
       <c r="B143">
         <v>203696.42739925199</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143">
+        <v>665</v>
+      </c>
+      <c r="D143">
+        <v>203696.42739925199</v>
+      </c>
+      <c r="E143">
+        <v>665</v>
+      </c>
+      <c r="F143">
+        <v>203696.42739925199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>666</v>
       </c>
       <c r="B144">
         <v>205886.52752747899</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144">
+        <v>666</v>
+      </c>
+      <c r="D144">
+        <v>205886.52752747899</v>
+      </c>
+      <c r="E144">
+        <v>666</v>
+      </c>
+      <c r="F144">
+        <v>205886.52752747899</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>667</v>
       </c>
       <c r="B145">
         <v>201128.35558657799</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145">
+        <v>667</v>
+      </c>
+      <c r="D145">
+        <v>201128.35558657799</v>
+      </c>
+      <c r="E145">
+        <v>667</v>
+      </c>
+      <c r="F145">
+        <v>201128.35558657799</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>668</v>
       </c>
       <c r="B146">
         <v>200074.740936002</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146">
+        <v>668</v>
+      </c>
+      <c r="D146">
+        <v>200074.740936002</v>
+      </c>
+      <c r="E146">
+        <v>668</v>
+      </c>
+      <c r="F146">
+        <v>200074.740936002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>669</v>
       </c>
       <c r="B147">
         <v>199890.626979603</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147">
+        <v>669</v>
+      </c>
+      <c r="D147">
+        <v>199890.626979603</v>
+      </c>
+      <c r="E147">
+        <v>669</v>
+      </c>
+      <c r="F147">
+        <v>199890.626979603</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>670</v>
       </c>
       <c r="B148">
         <v>197671.33233967901</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148">
+        <v>670</v>
+      </c>
+      <c r="D148">
+        <v>197671.33233967901</v>
+      </c>
+      <c r="E148">
+        <v>670</v>
+      </c>
+      <c r="F148">
+        <v>197671.33233967901</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>671</v>
       </c>
       <c r="B149">
         <v>198847.38690710999</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149">
+        <v>671</v>
+      </c>
+      <c r="D149">
+        <v>198847.38690710999</v>
+      </c>
+      <c r="E149">
+        <v>671</v>
+      </c>
+      <c r="F149">
+        <v>198847.38690710999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>672</v>
       </c>
       <c r="B150">
         <v>196904.42442392401</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150">
+        <v>672</v>
+      </c>
+      <c r="D150">
+        <v>196904.42442392401</v>
+      </c>
+      <c r="E150">
+        <v>672</v>
+      </c>
+      <c r="F150">
+        <v>196904.42442392401</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>673</v>
       </c>
       <c r="B151">
         <v>193091.32259734799</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C151">
+        <v>673</v>
+      </c>
+      <c r="D151">
+        <v>193091.32259734799</v>
+      </c>
+      <c r="E151">
+        <v>673</v>
+      </c>
+      <c r="F151">
+        <v>193091.32259734799</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>674</v>
       </c>
       <c r="B152">
         <v>196127.35885918199</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152">
+        <v>674</v>
+      </c>
+      <c r="D152">
+        <v>196127.35885918199</v>
+      </c>
+      <c r="E152">
+        <v>674</v>
+      </c>
+      <c r="F152">
+        <v>196127.35885918199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>675</v>
       </c>
       <c r="B153">
         <v>192549.647851594</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C153">
+        <v>675</v>
+      </c>
+      <c r="D153">
+        <v>192549.647851594</v>
+      </c>
+      <c r="E153">
+        <v>675</v>
+      </c>
+      <c r="F153">
+        <v>192549.647851594</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>676</v>
       </c>
       <c r="B154">
         <v>191875.155837264</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154">
+        <v>676</v>
+      </c>
+      <c r="D154">
+        <v>191875.155837264</v>
+      </c>
+      <c r="E154">
+        <v>676</v>
+      </c>
+      <c r="F154">
+        <v>191875.155837264</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>677</v>
       </c>
       <c r="B155">
         <v>189739.60354643801</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C155">
+        <v>677</v>
+      </c>
+      <c r="D155">
+        <v>189739.60354643801</v>
+      </c>
+      <c r="E155">
+        <v>677</v>
+      </c>
+      <c r="F155">
+        <v>189739.60354643801</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>678</v>
       </c>
       <c r="B156">
         <v>189300.295458017</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156">
+        <v>678</v>
+      </c>
+      <c r="D156">
+        <v>189300.295458017</v>
+      </c>
+      <c r="E156">
+        <v>678</v>
+      </c>
+      <c r="F156">
+        <v>189300.295458017</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>679</v>
       </c>
       <c r="B157">
         <v>186001.07353821999</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C157">
+        <v>679</v>
+      </c>
+      <c r="D157">
+        <v>186001.07353821999</v>
+      </c>
+      <c r="E157">
+        <v>679</v>
+      </c>
+      <c r="F157">
+        <v>186001.07353821999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>680</v>
       </c>
       <c r="B158">
         <v>186797.67702574699</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158">
+        <v>680</v>
+      </c>
+      <c r="D158">
+        <v>186797.67702574699</v>
+      </c>
+      <c r="E158">
+        <v>680</v>
+      </c>
+      <c r="F158">
+        <v>186797.67702574699</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>681</v>
       </c>
       <c r="B159">
         <v>184990.103134765</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C159">
+        <v>681</v>
+      </c>
+      <c r="D159">
+        <v>184990.103134765</v>
+      </c>
+      <c r="E159">
+        <v>681</v>
+      </c>
+      <c r="F159">
+        <v>184990.103134765</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>682</v>
       </c>
       <c r="B160">
         <v>182345.787348768</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160">
+        <v>682</v>
+      </c>
+      <c r="D160">
+        <v>182345.787348768</v>
+      </c>
+      <c r="E160">
+        <v>682</v>
+      </c>
+      <c r="F160">
+        <v>182345.787348768</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>683</v>
       </c>
       <c r="B161">
         <v>179988.009982952</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161">
+        <v>683</v>
+      </c>
+      <c r="D161">
+        <v>179988.009982952</v>
+      </c>
+      <c r="E161">
+        <v>683</v>
+      </c>
+      <c r="F161">
+        <v>179988.009982952</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>684</v>
       </c>
       <c r="B162">
         <v>177304.37862327101</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162">
+        <v>684</v>
+      </c>
+      <c r="D162">
+        <v>177304.37862327101</v>
+      </c>
+      <c r="E162">
+        <v>684</v>
+      </c>
+      <c r="F162">
+        <v>177304.37862327101</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>685</v>
       </c>
       <c r="B163">
         <v>176222.992999273</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C163">
+        <v>685</v>
+      </c>
+      <c r="D163">
+        <v>176222.992999273</v>
+      </c>
+      <c r="E163">
+        <v>685</v>
+      </c>
+      <c r="F163">
+        <v>176222.992999273</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>686</v>
       </c>
       <c r="B164">
         <v>171949.752304375</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164">
+        <v>686</v>
+      </c>
+      <c r="D164">
+        <v>171949.752304375</v>
+      </c>
+      <c r="E164">
+        <v>686</v>
+      </c>
+      <c r="F164">
+        <v>171949.752304375</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>687</v>
       </c>
       <c r="B165">
         <v>168779.301103693</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C165">
+        <v>687</v>
+      </c>
+      <c r="D165">
+        <v>168779.301103693</v>
+      </c>
+      <c r="E165">
+        <v>687</v>
+      </c>
+      <c r="F165">
+        <v>168779.301103693</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>688</v>
       </c>
       <c r="B166">
         <v>163348.33827844899</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166">
+        <v>688</v>
+      </c>
+      <c r="D166">
+        <v>163348.33827844899</v>
+      </c>
+      <c r="E166">
+        <v>688</v>
+      </c>
+      <c r="F166">
+        <v>163348.33827844899</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>689</v>
       </c>
       <c r="B167">
         <v>160231.87998983401</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C167">
+        <v>689</v>
+      </c>
+      <c r="D167">
+        <v>160231.87998983401</v>
+      </c>
+      <c r="E167">
+        <v>689</v>
+      </c>
+      <c r="F167">
+        <v>160231.87998983401</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>690</v>
       </c>
       <c r="B168">
         <v>155762.79844842601</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168">
+        <v>690</v>
+      </c>
+      <c r="D168">
+        <v>155762.79844842601</v>
+      </c>
+      <c r="E168">
+        <v>690</v>
+      </c>
+      <c r="F168">
+        <v>155762.79844842601</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>691</v>
       </c>
       <c r="B169">
         <v>152333.621807955</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C169">
+        <v>691</v>
+      </c>
+      <c r="D169">
+        <v>152333.621807955</v>
+      </c>
+      <c r="E169">
+        <v>691</v>
+      </c>
+      <c r="F169">
+        <v>152333.621807955</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>692</v>
       </c>
       <c r="B170">
         <v>146739.89515477401</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170">
+        <v>692</v>
+      </c>
+      <c r="D170">
+        <v>146739.89515477401</v>
+      </c>
+      <c r="E170">
+        <v>692</v>
+      </c>
+      <c r="F170">
+        <v>146739.89515477401</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>693</v>
       </c>
       <c r="B171">
         <v>144859.16330288301</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C171">
+        <v>693</v>
+      </c>
+      <c r="D171">
+        <v>144859.16330288301</v>
+      </c>
+      <c r="E171">
+        <v>693</v>
+      </c>
+      <c r="F171">
+        <v>144859.16330288301</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>694</v>
       </c>
       <c r="B172">
         <v>137350.38674169901</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172">
+        <v>694</v>
+      </c>
+      <c r="D172">
+        <v>137350.38674169901</v>
+      </c>
+      <c r="E172">
+        <v>694</v>
+      </c>
+      <c r="F172">
+        <v>137350.38674169901</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>695</v>
       </c>
       <c r="B173">
         <v>135431.03215401701</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173">
+        <v>695</v>
+      </c>
+      <c r="D173">
+        <v>135431.03215401701</v>
+      </c>
+      <c r="E173">
+        <v>695</v>
+      </c>
+      <c r="F173">
+        <v>135431.03215401701</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>696</v>
       </c>
       <c r="B174">
         <v>127879.51972678999</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174">
+        <v>696</v>
+      </c>
+      <c r="D174">
+        <v>127879.51972678999</v>
+      </c>
+      <c r="E174">
+        <v>696</v>
+      </c>
+      <c r="F174">
+        <v>127879.51972678999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>697</v>
       </c>
       <c r="B175">
         <v>124207.591448741</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C175">
+        <v>697</v>
+      </c>
+      <c r="D175">
+        <v>124207.591448741</v>
+      </c>
+      <c r="E175">
+        <v>697</v>
+      </c>
+      <c r="F175">
+        <v>124207.591448741</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>698</v>
       </c>
       <c r="B176">
         <v>119928.97869318401</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176">
+        <v>698</v>
+      </c>
+      <c r="D176">
+        <v>119928.97869318401</v>
+      </c>
+      <c r="E176">
+        <v>698</v>
+      </c>
+      <c r="F176">
+        <v>119928.97869318401</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>699</v>
       </c>
       <c r="B177">
         <v>117060.83038864299</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C177">
+        <v>699</v>
+      </c>
+      <c r="D177">
+        <v>117060.83038864299</v>
+      </c>
+      <c r="E177">
+        <v>699</v>
+      </c>
+      <c r="F177">
+        <v>117060.83038864299</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>700</v>
       </c>
       <c r="B178">
         <v>113727.64937300701</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178">
+        <v>700</v>
+      </c>
+      <c r="D178">
+        <v>113727.64937300701</v>
+      </c>
+      <c r="E178">
+        <v>700</v>
+      </c>
+      <c r="F178">
+        <v>113727.64937300701</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>701</v>
       </c>
       <c r="B179">
         <v>109008.634632755</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C179">
+        <v>701</v>
+      </c>
+      <c r="D179">
+        <v>109008.634632755</v>
+      </c>
+      <c r="E179">
+        <v>701</v>
+      </c>
+      <c r="F179">
+        <v>109008.634632755</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>702</v>
       </c>
       <c r="B180">
         <v>106660.191829884</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180">
+        <v>702</v>
+      </c>
+      <c r="D180">
+        <v>106660.191829884</v>
+      </c>
+      <c r="E180">
+        <v>702</v>
+      </c>
+      <c r="F180">
+        <v>106660.191829884</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>703</v>
       </c>
       <c r="B181">
         <v>102035.986537128</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C181">
+        <v>703</v>
+      </c>
+      <c r="D181">
+        <v>102035.986537128</v>
+      </c>
+      <c r="E181">
+        <v>703</v>
+      </c>
+      <c r="F181">
+        <v>102035.986537128</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>704</v>
       </c>
       <c r="B182">
         <v>98647.785974850296</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182">
+        <v>704</v>
+      </c>
+      <c r="D182">
+        <v>98647.785974850296</v>
+      </c>
+      <c r="E182">
+        <v>704</v>
+      </c>
+      <c r="F182">
+        <v>98647.785974850296</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>705</v>
       </c>
       <c r="B183">
         <v>94371.402937821404</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C183">
+        <v>705</v>
+      </c>
+      <c r="D183">
+        <v>94371.402937821404</v>
+      </c>
+      <c r="E183">
+        <v>705</v>
+      </c>
+      <c r="F183">
+        <v>94371.402937821404</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>706</v>
       </c>
       <c r="B184">
         <v>91743.918352692301</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184">
+        <v>706</v>
+      </c>
+      <c r="D184">
+        <v>91743.918352692301</v>
+      </c>
+      <c r="E184">
+        <v>706</v>
+      </c>
+      <c r="F184">
+        <v>91743.918352692301</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>707</v>
       </c>
       <c r="B185">
         <v>89400.052084929193</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C185">
+        <v>707</v>
+      </c>
+      <c r="D185">
+        <v>89400.052084929193</v>
+      </c>
+      <c r="E185">
+        <v>707</v>
+      </c>
+      <c r="F185">
+        <v>89400.052084929193</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>708</v>
       </c>
       <c r="B186">
         <v>85491.621617306198</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186">
+        <v>708</v>
+      </c>
+      <c r="D186">
+        <v>85491.621617306198</v>
+      </c>
+      <c r="E186">
+        <v>708</v>
+      </c>
+      <c r="F186">
+        <v>85491.621617306198</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>709</v>
       </c>
       <c r="B187">
         <v>83230.166091039995</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C187">
+        <v>709</v>
+      </c>
+      <c r="D187">
+        <v>83230.166091039995</v>
+      </c>
+      <c r="E187">
+        <v>709</v>
+      </c>
+      <c r="F187">
+        <v>83230.166091039995</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>710</v>
       </c>
       <c r="B188">
         <v>80061.062563547894</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188">
+        <v>710</v>
+      </c>
+      <c r="D188">
+        <v>80061.062563547894</v>
+      </c>
+      <c r="E188">
+        <v>710</v>
+      </c>
+      <c r="F188">
+        <v>80061.062563547894</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>711</v>
       </c>
       <c r="B189">
         <v>79203.379372530995</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C189">
+        <v>711</v>
+      </c>
+      <c r="D189">
+        <v>79203.379372530995</v>
+      </c>
+      <c r="E189">
+        <v>711</v>
+      </c>
+      <c r="F189">
+        <v>79203.379372530995</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>712</v>
       </c>
       <c r="B190">
         <v>77125.103713531294</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190">
+        <v>712</v>
+      </c>
+      <c r="D190">
+        <v>77125.103713531294</v>
+      </c>
+      <c r="E190">
+        <v>712</v>
+      </c>
+      <c r="F190">
+        <v>77125.103713531294</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>713</v>
       </c>
       <c r="B191">
         <v>73867.430475878995</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C191">
+        <v>713</v>
+      </c>
+      <c r="D191">
+        <v>73867.430475878995</v>
+      </c>
+      <c r="E191">
+        <v>713</v>
+      </c>
+      <c r="F191">
+        <v>73867.430475878995</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>714</v>
       </c>
       <c r="B192">
         <v>68101.364596600397</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192">
+        <v>714</v>
+      </c>
+      <c r="D192">
+        <v>68101.364596600397</v>
+      </c>
+      <c r="E192">
+        <v>714</v>
+      </c>
+      <c r="F192">
+        <v>68101.364596600397</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>715</v>
       </c>
       <c r="B193">
         <v>68252.524658628405</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193">
+        <v>715</v>
+      </c>
+      <c r="D193">
+        <v>68252.524658628405</v>
+      </c>
+      <c r="E193">
+        <v>715</v>
+      </c>
+      <c r="F193">
+        <v>68252.524658628405</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>716</v>
       </c>
       <c r="B194">
         <v>67003.012356822306</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194">
+        <v>716</v>
+      </c>
+      <c r="D194">
+        <v>67003.012356822306</v>
+      </c>
+      <c r="E194">
+        <v>716</v>
+      </c>
+      <c r="F194">
+        <v>67003.012356822306</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>717</v>
       </c>
       <c r="B195">
         <v>63275.677143872002</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C195">
+        <v>717</v>
+      </c>
+      <c r="D195">
+        <v>63275.677143872002</v>
+      </c>
+      <c r="E195">
+        <v>717</v>
+      </c>
+      <c r="F195">
+        <v>63275.677143872002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>718</v>
       </c>
       <c r="B196">
         <v>61432.737387278401</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196">
+        <v>718</v>
+      </c>
+      <c r="D196">
+        <v>61432.737387278401</v>
+      </c>
+      <c r="E196">
+        <v>718</v>
+      </c>
+      <c r="F196">
+        <v>61432.737387278401</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>719</v>
       </c>
       <c r="B197">
         <v>60788.302579982097</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C197">
+        <v>719</v>
+      </c>
+      <c r="D197">
+        <v>60788.302579982097</v>
+      </c>
+      <c r="E197">
+        <v>719</v>
+      </c>
+      <c r="F197">
+        <v>60788.302579982097</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>720</v>
       </c>
       <c r="B198">
         <v>58895.546685157402</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198">
+        <v>720</v>
+      </c>
+      <c r="D198">
+        <v>58895.546685157402</v>
+      </c>
+      <c r="E198">
+        <v>720</v>
+      </c>
+      <c r="F198">
+        <v>58895.546685157402</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>721</v>
       </c>
       <c r="B199">
         <v>58251.296605756797</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C199">
+        <v>721</v>
+      </c>
+      <c r="D199">
+        <v>58251.296605756797</v>
+      </c>
+      <c r="E199">
+        <v>721</v>
+      </c>
+      <c r="F199">
+        <v>58251.296605756797</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>722</v>
       </c>
       <c r="B200">
         <v>54970.375479571398</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200">
+        <v>722</v>
+      </c>
+      <c r="D200">
+        <v>54970.375479571398</v>
+      </c>
+      <c r="E200">
+        <v>722</v>
+      </c>
+      <c r="F200">
+        <v>54970.375479571398</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>723</v>
       </c>
       <c r="B201">
         <v>54266.041819843602</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C201">
+        <v>723</v>
+      </c>
+      <c r="D201">
+        <v>54266.041819843602</v>
+      </c>
+      <c r="E201">
+        <v>723</v>
+      </c>
+      <c r="F201">
+        <v>54266.041819843602</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>724</v>
       </c>
       <c r="B202">
         <v>50996.655383863399</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202">
+        <v>724</v>
+      </c>
+      <c r="D202">
+        <v>50996.655383863399</v>
+      </c>
+      <c r="E202">
+        <v>724</v>
+      </c>
+      <c r="F202">
+        <v>50996.655383863399</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>725</v>
       </c>
       <c r="B203">
         <v>51539.7928501961</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C203">
+        <v>725</v>
+      </c>
+      <c r="D203">
+        <v>51539.7928501961</v>
+      </c>
+      <c r="E203">
+        <v>725</v>
+      </c>
+      <c r="F203">
+        <v>51539.7928501961</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>726</v>
       </c>
       <c r="B204">
         <v>49186.437876399097</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C204">
+        <v>726</v>
+      </c>
+      <c r="D204">
+        <v>49186.437876399097</v>
+      </c>
+      <c r="E204">
+        <v>726</v>
+      </c>
+      <c r="F204">
+        <v>49186.437876399097</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>727</v>
       </c>
       <c r="B205">
         <v>48392.070431742097</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C205">
+        <v>727</v>
+      </c>
+      <c r="D205">
+        <v>48392.070431742097</v>
+      </c>
+      <c r="E205">
+        <v>727</v>
+      </c>
+      <c r="F205">
+        <v>48392.070431742097</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>728</v>
       </c>
       <c r="B206">
         <v>45496.752262025402</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C206">
+        <v>728</v>
+      </c>
+      <c r="D206">
+        <v>45496.752262025402</v>
+      </c>
+      <c r="E206">
+        <v>728</v>
+      </c>
+      <c r="F206">
+        <v>45496.752262025402</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>729</v>
       </c>
       <c r="B207">
         <v>45828.459421153297</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C207">
+        <v>729</v>
+      </c>
+      <c r="D207">
+        <v>45828.459421153297</v>
+      </c>
+      <c r="E207">
+        <v>729</v>
+      </c>
+      <c r="F207">
+        <v>45828.459421153297</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>730</v>
       </c>
       <c r="B208">
         <v>44089.6480148677</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C208">
+        <v>730</v>
+      </c>
+      <c r="D208">
+        <v>44089.6480148677</v>
+      </c>
+      <c r="E208">
+        <v>730</v>
+      </c>
+      <c r="F208">
+        <v>44089.6480148677</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>731</v>
       </c>
       <c r="B209">
         <v>42712.912561058598</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C209">
+        <v>731</v>
+      </c>
+      <c r="D209">
+        <v>42712.912561058598</v>
+      </c>
+      <c r="E209">
+        <v>731</v>
+      </c>
+      <c r="F209">
+        <v>42712.912561058598</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>732</v>
       </c>
       <c r="B210">
         <v>41718.178626193803</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C210">
+        <v>732</v>
+      </c>
+      <c r="D210">
+        <v>41718.178626193803</v>
+      </c>
+      <c r="E210">
+        <v>732</v>
+      </c>
+      <c r="F210">
+        <v>41718.178626193803</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>733</v>
       </c>
       <c r="B211">
         <v>41477.047843373402</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C211">
+        <v>733</v>
+      </c>
+      <c r="D211">
+        <v>41477.047843373402</v>
+      </c>
+      <c r="E211">
+        <v>733</v>
+      </c>
+      <c r="F211">
+        <v>41477.047843373402</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>734</v>
       </c>
       <c r="B212">
         <v>39939.993536470101</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C212">
+        <v>734</v>
+      </c>
+      <c r="D212">
+        <v>39939.993536470101</v>
+      </c>
+      <c r="E212">
+        <v>734</v>
+      </c>
+      <c r="F212">
+        <v>39939.993536470101</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>735</v>
       </c>
       <c r="B213">
         <v>39889.767508041397</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C213">
+        <v>735</v>
+      </c>
+      <c r="D213">
+        <v>39889.767508041397</v>
+      </c>
+      <c r="E213">
+        <v>735</v>
+      </c>
+      <c r="F213">
+        <v>39889.767508041397</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>736</v>
       </c>
       <c r="B214">
         <v>37649.976462361497</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C214">
+        <v>736</v>
+      </c>
+      <c r="D214">
+        <v>37649.976462361497</v>
+      </c>
+      <c r="E214">
+        <v>736</v>
+      </c>
+      <c r="F214">
+        <v>37649.976462361497</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>737</v>
       </c>
       <c r="B215">
         <v>37660.019103163402</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C215">
+        <v>737</v>
+      </c>
+      <c r="D215">
+        <v>37660.019103163402</v>
+      </c>
+      <c r="E215">
+        <v>737</v>
+      </c>
+      <c r="F215">
+        <v>37660.019103163402</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>738</v>
       </c>
       <c r="B216">
         <v>35892.689805985399</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C216">
+        <v>738</v>
+      </c>
+      <c r="D216">
+        <v>35892.689805985399</v>
+      </c>
+      <c r="E216">
+        <v>738</v>
+      </c>
+      <c r="F216">
+        <v>35892.689805985399</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>739</v>
       </c>
       <c r="B217">
         <v>35952.933857650998</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C217">
+        <v>739</v>
+      </c>
+      <c r="D217">
+        <v>35952.933857650998</v>
+      </c>
+      <c r="E217">
+        <v>739</v>
+      </c>
+      <c r="F217">
+        <v>35952.933857650998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>740</v>
       </c>
       <c r="B218">
         <v>34968.999032399799</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C218">
+        <v>740</v>
+      </c>
+      <c r="D218">
+        <v>34968.999032399799</v>
+      </c>
+      <c r="E218">
+        <v>740</v>
+      </c>
+      <c r="F218">
+        <v>34968.999032399799</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>741</v>
       </c>
       <c r="B219">
         <v>33814.521128460503</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C219">
+        <v>741</v>
+      </c>
+      <c r="D219">
+        <v>33814.521128460503</v>
+      </c>
+      <c r="E219">
+        <v>741</v>
+      </c>
+      <c r="F219">
+        <v>33814.521128460503</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>742</v>
       </c>
       <c r="B220">
         <v>35260.152023016999</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C220">
+        <v>742</v>
+      </c>
+      <c r="D220">
+        <v>35260.152023016999</v>
+      </c>
+      <c r="E220">
+        <v>742</v>
+      </c>
+      <c r="F220">
+        <v>35260.152023016999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>743</v>
       </c>
       <c r="B221">
         <v>33252.395105820702</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C221">
+        <v>743</v>
+      </c>
+      <c r="D221">
+        <v>33252.395105820702</v>
+      </c>
+      <c r="E221">
+        <v>743</v>
+      </c>
+      <c r="F221">
+        <v>33252.395105820702</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>744</v>
       </c>
       <c r="B222">
         <v>32850.898378146201</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C222">
+        <v>744</v>
+      </c>
+      <c r="D222">
+        <v>32850.898378146201</v>
+      </c>
+      <c r="E222">
+        <v>744</v>
+      </c>
+      <c r="F222">
+        <v>32850.898378146201</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>745</v>
       </c>
       <c r="B223">
         <v>31907.452762918401</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C223">
+        <v>745</v>
+      </c>
+      <c r="D223">
+        <v>31907.452762918401</v>
+      </c>
+      <c r="E223">
+        <v>745</v>
+      </c>
+      <c r="F223">
+        <v>31907.452762918401</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>746</v>
       </c>
       <c r="B224">
         <v>31225.022882274799</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C224">
+        <v>746</v>
+      </c>
+      <c r="D224">
+        <v>31225.022882274799</v>
+      </c>
+      <c r="E224">
+        <v>746</v>
+      </c>
+      <c r="F224">
+        <v>31225.022882274799</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>747</v>
       </c>
       <c r="B225">
         <v>31385.589884506098</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C225">
+        <v>747</v>
+      </c>
+      <c r="D225">
+        <v>31385.589884506098</v>
+      </c>
+      <c r="E225">
+        <v>747</v>
+      </c>
+      <c r="F225">
+        <v>31385.589884506098</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>748</v>
       </c>
       <c r="B226">
         <v>30091.1013662449</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C226">
+        <v>748</v>
+      </c>
+      <c r="D226">
+        <v>30091.1013662449</v>
+      </c>
+      <c r="E226">
+        <v>748</v>
+      </c>
+      <c r="F226">
+        <v>30091.1013662449</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>749</v>
       </c>
       <c r="B227">
         <v>30231.579332695201</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C227">
+        <v>749</v>
+      </c>
+      <c r="D227">
+        <v>30231.579332695201</v>
+      </c>
+      <c r="E227">
+        <v>749</v>
+      </c>
+      <c r="F227">
+        <v>30231.579332695201</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>750</v>
       </c>
       <c r="B228">
         <v>28315.250793957799</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C228">
+        <v>750</v>
+      </c>
+      <c r="D228">
+        <v>28315.250793957799</v>
+      </c>
+      <c r="E228">
+        <v>750</v>
+      </c>
+      <c r="F228">
+        <v>28315.250793957799</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>751</v>
       </c>
       <c r="B229">
         <v>28435.636182499798</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C229">
+        <v>751</v>
+      </c>
+      <c r="D229">
+        <v>28435.636182499798</v>
+      </c>
+      <c r="E229">
+        <v>751</v>
+      </c>
+      <c r="F229">
+        <v>28435.636182499798</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>752</v>
       </c>
       <c r="B230">
         <v>27031.2418718956</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C230">
+        <v>752</v>
+      </c>
+      <c r="D230">
+        <v>27031.2418718956</v>
+      </c>
+      <c r="E230">
+        <v>752</v>
+      </c>
+      <c r="F230">
+        <v>27031.2418718956</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>753</v>
       </c>
       <c r="B231">
         <v>27873.8517132702</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C231">
+        <v>753</v>
+      </c>
+      <c r="D231">
+        <v>27873.8517132702</v>
+      </c>
+      <c r="E231">
+        <v>753</v>
+      </c>
+      <c r="F231">
+        <v>27873.8517132702</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>754</v>
       </c>
       <c r="B232">
         <v>25747.419223523801</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C232">
+        <v>754</v>
+      </c>
+      <c r="D232">
+        <v>25747.419223523801</v>
+      </c>
+      <c r="E232">
+        <v>754</v>
+      </c>
+      <c r="F232">
+        <v>25747.419223523801</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>755</v>
       </c>
       <c r="B233">
         <v>26228.830891145601</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C233">
+        <v>755</v>
+      </c>
+      <c r="D233">
+        <v>26228.830891145601</v>
+      </c>
+      <c r="E233">
+        <v>755</v>
+      </c>
+      <c r="F233">
+        <v>26228.830891145601</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>756</v>
       </c>
       <c r="B234">
         <v>25988.1217837648</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C234">
+        <v>756</v>
+      </c>
+      <c r="D234">
+        <v>25988.1217837648</v>
+      </c>
+      <c r="E234">
+        <v>756</v>
+      </c>
+      <c r="F234">
+        <v>25988.1217837648</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>757</v>
       </c>
       <c r="B235">
         <v>26008.180625976602</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C235">
+        <v>757</v>
+      </c>
+      <c r="D235">
+        <v>26008.180625976602</v>
+      </c>
+      <c r="E235">
+        <v>757</v>
+      </c>
+      <c r="F235">
+        <v>26008.180625976602</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>758</v>
       </c>
       <c r="B236">
         <v>24353.478976724102</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C236">
+        <v>758</v>
+      </c>
+      <c r="D236">
+        <v>24353.478976724102</v>
+      </c>
+      <c r="E236">
+        <v>758</v>
+      </c>
+      <c r="F236">
+        <v>24353.478976724102</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>759</v>
       </c>
       <c r="B237">
         <v>23370.832916231899</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C237">
+        <v>759</v>
+      </c>
+      <c r="D237">
+        <v>23370.832916231899</v>
+      </c>
+      <c r="E237">
+        <v>759</v>
+      </c>
+      <c r="F237">
+        <v>23370.832916231899</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>760</v>
       </c>
       <c r="B238">
         <v>24433.699798977799</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C238">
+        <v>760</v>
+      </c>
+      <c r="D238">
+        <v>24433.699798977799</v>
+      </c>
+      <c r="E238">
+        <v>760</v>
+      </c>
+      <c r="F238">
+        <v>24433.699798977799</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>761</v>
       </c>
       <c r="B239">
         <v>22859.4990480044</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C239">
+        <v>761</v>
+      </c>
+      <c r="D239">
+        <v>22859.4990480044</v>
+      </c>
+      <c r="E239">
+        <v>761</v>
+      </c>
+      <c r="F239">
+        <v>22859.4990480044</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>762</v>
       </c>
       <c r="B240">
         <v>22859.4990480044</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C240">
+        <v>762</v>
+      </c>
+      <c r="D240">
+        <v>22859.4990480044</v>
+      </c>
+      <c r="E240">
+        <v>762</v>
+      </c>
+      <c r="F240">
+        <v>22859.4990480044</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>763</v>
       </c>
       <c r="B241">
         <v>21014.9322074226</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C241">
+        <v>763</v>
+      </c>
+      <c r="D241">
+        <v>21014.9322074226</v>
+      </c>
+      <c r="E241">
+        <v>763</v>
+      </c>
+      <c r="F241">
+        <v>21014.9322074226</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>764</v>
       </c>
       <c r="B242">
         <v>21335.698823631599</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C242">
+        <v>764</v>
+      </c>
+      <c r="D242">
+        <v>21335.698823631599</v>
+      </c>
+      <c r="E242">
+        <v>764</v>
+      </c>
+      <c r="F242">
+        <v>21335.698823631599</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>765</v>
       </c>
       <c r="B243">
         <v>20353.387778722499</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C243">
+        <v>765</v>
+      </c>
+      <c r="D243">
+        <v>20353.387778722499</v>
+      </c>
+      <c r="E243">
+        <v>765</v>
+      </c>
+      <c r="F243">
+        <v>20353.387778722499</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>766</v>
       </c>
       <c r="B244">
         <v>21265.530132835898</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C244">
+        <v>766</v>
+      </c>
+      <c r="D244">
+        <v>21265.530132835898</v>
+      </c>
+      <c r="E244">
+        <v>766</v>
+      </c>
+      <c r="F244">
+        <v>21265.530132835898</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>767</v>
       </c>
       <c r="B245">
         <v>19681.870528822899</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C245">
+        <v>767</v>
+      </c>
+      <c r="D245">
+        <v>19681.870528822899</v>
+      </c>
+      <c r="E245">
+        <v>767</v>
+      </c>
+      <c r="F245">
+        <v>19681.870528822899</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>768</v>
       </c>
       <c r="B246">
         <v>19461.3834397596</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C246">
+        <v>768</v>
+      </c>
+      <c r="D246">
+        <v>19461.3834397596</v>
+      </c>
+      <c r="E246">
+        <v>768</v>
+      </c>
+      <c r="F246">
+        <v>19461.3834397596</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>769</v>
       </c>
       <c r="B247">
         <v>18759.870155982699</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C247">
+        <v>769</v>
+      </c>
+      <c r="D247">
+        <v>18759.870155982699</v>
+      </c>
+      <c r="E247">
+        <v>769</v>
+      </c>
+      <c r="F247">
+        <v>18759.870155982699</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>770</v>
       </c>
       <c r="B248">
         <v>17357.010395371701</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C248">
+        <v>770</v>
+      </c>
+      <c r="D248">
+        <v>17357.010395371701</v>
+      </c>
+      <c r="E248">
+        <v>770</v>
+      </c>
+      <c r="F248">
+        <v>17357.010395371701</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>771</v>
       </c>
       <c r="B249">
         <v>17878.046632389502</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C249">
+        <v>771</v>
+      </c>
+      <c r="D249">
+        <v>17878.046632389502</v>
+      </c>
+      <c r="E249">
+        <v>771</v>
+      </c>
+      <c r="F249">
+        <v>17878.046632389502</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>772</v>
       </c>
       <c r="B250">
         <v>17998.290120645099</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C250">
+        <v>772</v>
+      </c>
+      <c r="D250">
+        <v>17998.290120645099</v>
+      </c>
+      <c r="E250">
+        <v>772</v>
+      </c>
+      <c r="F250">
+        <v>17998.290120645099</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>773</v>
       </c>
       <c r="B251">
         <v>16515.401271758601</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C251">
+        <v>773</v>
+      </c>
+      <c r="D251">
+        <v>16515.401271758601</v>
+      </c>
+      <c r="E251">
+        <v>773</v>
+      </c>
+      <c r="F251">
+        <v>16515.401271758601</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>774</v>
       </c>
       <c r="B252">
         <v>15894.264921184</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C252">
+        <v>774</v>
+      </c>
+      <c r="D252">
+        <v>15894.264921184</v>
+      </c>
+      <c r="E252">
+        <v>774</v>
+      </c>
+      <c r="F252">
+        <v>15894.264921184</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>775</v>
       </c>
       <c r="B253">
         <v>15673.8721791031</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C253">
+        <v>775</v>
+      </c>
+      <c r="D253">
+        <v>15673.8721791031</v>
+      </c>
+      <c r="E253">
+        <v>775</v>
+      </c>
+      <c r="F253">
+        <v>15673.8721791031</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>776</v>
       </c>
       <c r="B254">
         <v>15323.258673792699</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C254">
+        <v>776</v>
+      </c>
+      <c r="D254">
+        <v>15323.258673792699</v>
+      </c>
+      <c r="E254">
+        <v>776</v>
+      </c>
+      <c r="F254">
+        <v>15323.258673792699</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>777</v>
       </c>
       <c r="B255">
         <v>14311.566146503401</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C255">
+        <v>777</v>
+      </c>
+      <c r="D255">
+        <v>14311.566146503401</v>
+      </c>
+      <c r="E255">
+        <v>777</v>
+      </c>
+      <c r="F255">
+        <v>14311.566146503401</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>778</v>
       </c>
       <c r="B256">
         <v>13961.006609616799</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C256">
+        <v>778</v>
+      </c>
+      <c r="D256">
+        <v>13961.006609616799</v>
+      </c>
+      <c r="E256">
+        <v>778</v>
+      </c>
+      <c r="F256">
+        <v>13961.006609616799</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>779</v>
       </c>
       <c r="B257">
         <v>13670.5535129257</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C257">
+        <v>779</v>
+      </c>
+      <c r="D257">
+        <v>13670.5535129257</v>
+      </c>
+      <c r="E257">
+        <v>779</v>
+      </c>
+      <c r="F257">
+        <v>13670.5535129257</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>780</v>
       </c>
       <c r="B258">
         <v>12839.309401723</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C258">
+        <v>780</v>
+      </c>
+      <c r="D258">
+        <v>12839.309401723</v>
+      </c>
+      <c r="E258">
+        <v>780</v>
+      </c>
+      <c r="F258">
+        <v>12839.309401723</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>781</v>
       </c>
       <c r="B259">
         <v>13450.216143350701</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C259">
+        <v>781</v>
+      </c>
+      <c r="D259">
+        <v>13450.216143350701</v>
+      </c>
+      <c r="E259">
+        <v>781</v>
+      </c>
+      <c r="F259">
+        <v>13450.216143350701</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>782</v>
       </c>
       <c r="B260">
         <v>13159.779810656701</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C260">
+        <v>782</v>
+      </c>
+      <c r="D260">
+        <v>13159.779810656701</v>
+      </c>
+      <c r="E260">
+        <v>782</v>
+      </c>
+      <c r="F260">
+        <v>13159.779810656701</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>783</v>
       </c>
       <c r="B261">
         <v>12729.150378910599</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C261">
+        <v>783</v>
+      </c>
+      <c r="D261">
+        <v>12729.150378910599</v>
+      </c>
+      <c r="E261">
+        <v>783</v>
+      </c>
+      <c r="F261">
+        <v>12729.150378910599</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>784</v>
       </c>
       <c r="B262">
         <v>13630.4917649526</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C262">
+        <v>784</v>
+      </c>
+      <c r="D262">
+        <v>13630.4917649526</v>
+      </c>
+      <c r="E262">
+        <v>784</v>
+      </c>
+      <c r="F262">
+        <v>13630.4917649526</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>785</v>
       </c>
       <c r="B263">
         <v>11817.8874177609</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C263">
+        <v>785</v>
+      </c>
+      <c r="D263">
+        <v>11817.8874177609</v>
+      </c>
+      <c r="E263">
+        <v>785</v>
+      </c>
+      <c r="F263">
+        <v>11817.8874177609</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>786</v>
       </c>
       <c r="B264">
         <v>12128.3071191983</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C264">
+        <v>786</v>
+      </c>
+      <c r="D264">
+        <v>12128.3071191983</v>
+      </c>
+      <c r="E264">
+        <v>786</v>
+      </c>
+      <c r="F264">
+        <v>12128.3071191983</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>787</v>
       </c>
       <c r="B265">
         <v>13199.8394277801</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C265">
+        <v>787</v>
+      </c>
+      <c r="D265">
+        <v>13199.8394277801</v>
+      </c>
+      <c r="E265">
+        <v>787</v>
+      </c>
+      <c r="F265">
+        <v>13199.8394277801</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>788</v>
       </c>
       <c r="B266">
         <v>12368.6395277744</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C266">
+        <v>788</v>
+      </c>
+      <c r="D266">
+        <v>12368.6395277744</v>
+      </c>
+      <c r="E266">
+        <v>788</v>
+      </c>
+      <c r="F266">
+        <v>12368.6395277744</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>789</v>
       </c>
       <c r="B267">
         <v>11877.9678005076</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C267">
+        <v>789</v>
+      </c>
+      <c r="D267">
+        <v>11877.9678005076</v>
+      </c>
+      <c r="E267">
+        <v>789</v>
+      </c>
+      <c r="F267">
+        <v>11877.9678005076</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>790</v>
       </c>
       <c r="B268">
         <v>11207.093345523501</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C268">
+        <v>790</v>
+      </c>
+      <c r="D268">
+        <v>11207.093345523501</v>
+      </c>
+      <c r="E268">
+        <v>790</v>
+      </c>
+      <c r="F268">
+        <v>11207.093345523501</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>791</v>
       </c>
       <c r="B269">
         <v>11207.093345523501</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C269">
+        <v>791</v>
+      </c>
+      <c r="D269">
+        <v>11207.093345523501</v>
+      </c>
+      <c r="E269">
+        <v>791</v>
+      </c>
+      <c r="F269">
+        <v>11207.093345523501</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>792</v>
       </c>
       <c r="B270">
         <v>10406.1158320205</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C270">
+        <v>792</v>
+      </c>
+      <c r="D270">
+        <v>10406.1158320205</v>
+      </c>
+      <c r="E270">
+        <v>792</v>
+      </c>
+      <c r="F270">
+        <v>10406.1158320205</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>793</v>
       </c>
       <c r="B271">
         <v>9985.6316570284598</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C271">
+        <v>793</v>
+      </c>
+      <c r="D271">
+        <v>9985.6316570284598</v>
+      </c>
+      <c r="E271">
+        <v>793</v>
+      </c>
+      <c r="F271">
+        <v>9985.6316570284598</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>794</v>
       </c>
       <c r="B272">
         <v>10566.3055350781</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C272">
+        <v>794</v>
+      </c>
+      <c r="D272">
+        <v>10566.3055350781</v>
+      </c>
+      <c r="E272">
+        <v>794</v>
+      </c>
+      <c r="F272">
+        <v>10566.3055350781</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>795</v>
       </c>
       <c r="B273">
         <v>10095.756533684</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C273">
+        <v>795</v>
+      </c>
+      <c r="D273">
+        <v>10095.756533684</v>
+      </c>
+      <c r="E273">
+        <v>795</v>
+      </c>
+      <c r="F273">
+        <v>10095.756533684</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>796</v>
       </c>
       <c r="B274">
         <v>9615.2216742408691</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C274">
+        <v>796</v>
+      </c>
+      <c r="D274">
+        <v>9615.2216742408691</v>
+      </c>
+      <c r="E274">
+        <v>796</v>
+      </c>
+      <c r="F274">
+        <v>9615.2216742408691</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>797</v>
       </c>
       <c r="B275">
         <v>9675.2871047156896</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C275">
+        <v>797</v>
+      </c>
+      <c r="D275">
+        <v>9675.2871047156896</v>
+      </c>
+      <c r="E275">
+        <v>797</v>
+      </c>
+      <c r="F275">
+        <v>9675.2871047156896</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>798</v>
       </c>
       <c r="B276">
         <v>9194.7750757850008</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C276">
+        <v>798</v>
+      </c>
+      <c r="D276">
+        <v>9194.7750757850008</v>
+      </c>
+      <c r="E276">
+        <v>798</v>
+      </c>
+      <c r="F276">
+        <v>9194.7750757850008</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>799</v>
       </c>
       <c r="B277">
         <v>8644.2204496301401</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C277">
+        <v>799</v>
+      </c>
+      <c r="D277">
+        <v>8644.2204496301401</v>
+      </c>
+      <c r="E277">
+        <v>799</v>
+      </c>
+      <c r="F277">
+        <v>8644.2204496301401</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>800</v>
       </c>
       <c r="B278">
         <v>8744.3187431519309</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C278">
+        <v>800</v>
+      </c>
+      <c r="D278">
+        <v>8744.3187431519309</v>
+      </c>
+      <c r="E278">
+        <v>800</v>
+      </c>
+      <c r="F278">
+        <v>8744.3187431519309</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>801</v>
       </c>
       <c r="B279">
         <v>8814.3882222960801</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C279">
+        <v>801</v>
+      </c>
+      <c r="D279">
+        <v>8814.3882222960801</v>
+      </c>
+      <c r="E279">
+        <v>801</v>
+      </c>
+      <c r="F279">
+        <v>8814.3882222960801</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>802</v>
       </c>
       <c r="B280">
         <v>8464.0463744406206</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C280">
+        <v>802</v>
+      </c>
+      <c r="D280">
+        <v>8464.0463744406206</v>
+      </c>
+      <c r="E280">
+        <v>802</v>
+      </c>
+      <c r="F280">
+        <v>8464.0463744406206</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>803</v>
       </c>
       <c r="B281">
         <v>7713.3605436627504</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C281">
+        <v>803</v>
+      </c>
+      <c r="D281">
+        <v>7713.3605436627504</v>
+      </c>
+      <c r="E281">
+        <v>803</v>
+      </c>
+      <c r="F281">
+        <v>7713.3605436627504</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>804</v>
       </c>
       <c r="B282">
         <v>7012.77788270971</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C282">
+        <v>804</v>
+      </c>
+      <c r="D282">
+        <v>7012.77788270971</v>
+      </c>
+      <c r="E282">
+        <v>804</v>
+      </c>
+      <c r="F282">
+        <v>7012.77788270971</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>805</v>
       </c>
       <c r="B283">
         <v>6662.5073494663202</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C283">
+        <v>805</v>
+      </c>
+      <c r="D283">
+        <v>6662.5073494663202</v>
+      </c>
+      <c r="E283">
+        <v>805</v>
+      </c>
+      <c r="F283">
+        <v>6662.5073494663202</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>806</v>
       </c>
       <c r="B284">
         <v>6462.3589834772001</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C284">
+        <v>806</v>
+      </c>
+      <c r="D284">
+        <v>6462.3589834772001</v>
+      </c>
+      <c r="E284">
+        <v>806</v>
+      </c>
+      <c r="F284">
+        <v>6462.3589834772001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>807</v>
       </c>
       <c r="B285">
         <v>6872.6680057390704</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C285">
+        <v>807</v>
+      </c>
+      <c r="D285">
+        <v>6872.6680057390704</v>
+      </c>
+      <c r="E285">
+        <v>807</v>
+      </c>
+      <c r="F285">
+        <v>6872.6680057390704</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>808</v>
       </c>
       <c r="B286">
         <v>6562.4326006326901</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C286">
+        <v>808</v>
+      </c>
+      <c r="D286">
+        <v>6562.4326006326901</v>
+      </c>
+      <c r="E286">
+        <v>808</v>
+      </c>
+      <c r="F286">
+        <v>6562.4326006326901</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>809</v>
       </c>
       <c r="B287">
         <v>6242.2010091112097</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C287">
+        <v>809</v>
+      </c>
+      <c r="D287">
+        <v>6242.2010091112097</v>
+      </c>
+      <c r="E287">
+        <v>809</v>
+      </c>
+      <c r="F287">
+        <v>6242.2010091112097</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>810</v>
       </c>
       <c r="B288">
         <v>6292.2364314381202</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C288">
+        <v>810</v>
+      </c>
+      <c r="D288">
+        <v>6292.2364314381202</v>
+      </c>
+      <c r="E288">
+        <v>810</v>
+      </c>
+      <c r="F288">
+        <v>6292.2364314381202</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>811</v>
       </c>
       <c r="B289">
         <v>6642.4923091640003</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C289">
+        <v>811</v>
+      </c>
+      <c r="D289">
+        <v>6642.4923091640003</v>
+      </c>
+      <c r="E289">
+        <v>811</v>
+      </c>
+      <c r="F289">
+        <v>6642.4923091640003</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>812</v>
       </c>
       <c r="B290">
         <v>6282.2293243404902</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C290">
+        <v>812</v>
+      </c>
+      <c r="D290">
+        <v>6282.2293243404902</v>
+      </c>
+      <c r="E290">
+        <v>812</v>
+      </c>
+      <c r="F290">
+        <v>6282.2293243404902</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>813</v>
       </c>
       <c r="B291">
         <v>5551.7410692292797</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C291">
+        <v>813</v>
+      </c>
+      <c r="D291">
+        <v>5551.7410692292797</v>
+      </c>
+      <c r="E291">
+        <v>813</v>
+      </c>
+      <c r="F291">
+        <v>5551.7410692292797</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>814</v>
       </c>
       <c r="B292">
         <v>5301.5877189545299</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C292">
+        <v>814</v>
+      </c>
+      <c r="D292">
+        <v>5301.5877189545299</v>
+      </c>
+      <c r="E292">
+        <v>814</v>
+      </c>
+      <c r="F292">
+        <v>5301.5877189545299</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>815</v>
       </c>
       <c r="B293">
         <v>5171.5107712835497</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C293">
+        <v>815</v>
+      </c>
+      <c r="D293">
+        <v>5171.5107712835497</v>
+      </c>
+      <c r="E293">
+        <v>815</v>
+      </c>
+      <c r="F293">
+        <v>5171.5107712835497</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>816</v>
       </c>
       <c r="B294">
         <v>4971.3961235923598</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C294">
+        <v>816</v>
+      </c>
+      <c r="D294">
+        <v>4971.3961235923598</v>
+      </c>
+      <c r="E294">
+        <v>816</v>
+      </c>
+      <c r="F294">
+        <v>4971.3961235923598</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>817</v>
       </c>
       <c r="B295">
         <v>4611.2011608150297</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C295">
+        <v>817</v>
+      </c>
+      <c r="D295">
+        <v>4611.2011608150297</v>
+      </c>
+      <c r="E295">
+        <v>817</v>
+      </c>
+      <c r="F295">
+        <v>4611.2011608150297</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>818</v>
       </c>
       <c r="B296">
         <v>4731.2645194525503</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C296">
+        <v>818</v>
+      </c>
+      <c r="D296">
+        <v>4731.2645194525503</v>
+      </c>
+      <c r="E296">
+        <v>818</v>
+      </c>
+      <c r="F296">
+        <v>4731.2645194525503</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>819</v>
       </c>
       <c r="B297">
         <v>4921.3681687217504</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C297">
+        <v>819</v>
+      </c>
+      <c r="D297">
+        <v>4921.3681687217504</v>
+      </c>
+      <c r="E297">
+        <v>819</v>
+      </c>
+      <c r="F297">
+        <v>4921.3681687217504</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>820</v>
       </c>
       <c r="B298">
         <v>3950.8818036554899</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C298">
+        <v>820</v>
+      </c>
+      <c r="D298">
+        <v>3950.8818036554899</v>
+      </c>
+      <c r="E298">
+        <v>820</v>
+      </c>
+      <c r="F298">
+        <v>3950.8818036554899</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>821</v>
       </c>
       <c r="B299">
         <v>4311.0498905497898</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C299">
+        <v>821</v>
+      </c>
+      <c r="D299">
+        <v>4311.0498905497898</v>
+      </c>
+      <c r="E299">
+        <v>821</v>
+      </c>
+      <c r="F299">
+        <v>4311.0498905497898</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>822</v>
       </c>
       <c r="B300">
         <v>4000.9042724977799</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C300">
+        <v>822</v>
+      </c>
+      <c r="D300">
+        <v>4000.9042724977799</v>
+      </c>
+      <c r="E300">
+        <v>822</v>
+      </c>
+      <c r="F300">
+        <v>4000.9042724977799</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>823</v>
       </c>
       <c r="B301">
         <v>3990.8997561087899</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C301">
+        <v>823</v>
+      </c>
+      <c r="D301">
+        <v>3990.8997561087899</v>
+      </c>
+      <c r="E301">
+        <v>823</v>
+      </c>
+      <c r="F301">
+        <v>3990.8997561087899</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>824</v>
       </c>
       <c r="B302">
         <v>3540.7082242750598</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C302">
+        <v>824</v>
+      </c>
+      <c r="D302">
+        <v>3540.7082242750598</v>
+      </c>
+      <c r="E302">
+        <v>824</v>
+      </c>
+      <c r="F302">
+        <v>3540.7082242750598</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>825</v>
       </c>
       <c r="B303">
         <v>3320.62292140203</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C303">
+        <v>825</v>
+      </c>
+      <c r="D303">
+        <v>3320.62292140203</v>
+      </c>
+      <c r="E303">
+        <v>825</v>
+      </c>
+      <c r="F303">
+        <v>3320.62292140203</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>826</v>
       </c>
       <c r="B304">
         <v>3460.6765717567901</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C304">
+        <v>826</v>
+      </c>
+      <c r="D304">
+        <v>3460.6765717567901</v>
+      </c>
+      <c r="E304">
+        <v>826</v>
+      </c>
+      <c r="F304">
+        <v>3460.6765717567901</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>827</v>
       </c>
       <c r="B305">
         <v>3270.60429771695</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C305">
+        <v>827</v>
+      </c>
+      <c r="D305">
+        <v>3270.60429771695</v>
+      </c>
+      <c r="E305">
+        <v>827</v>
+      </c>
+      <c r="F305">
+        <v>3270.60429771695</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>828</v>
       </c>
       <c r="B306">
         <v>2830.4525993441098</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C306">
+        <v>828</v>
+      </c>
+      <c r="D306">
+        <v>2830.4525993441098</v>
+      </c>
+      <c r="E306">
+        <v>828</v>
+      </c>
+      <c r="F306">
+        <v>2830.4525993441098</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>829</v>
       </c>
       <c r="B307">
         <v>2530.3617197931198</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C307">
+        <v>829</v>
+      </c>
+      <c r="D307">
+        <v>2530.3617197931198</v>
+      </c>
+      <c r="E307">
+        <v>829</v>
+      </c>
+      <c r="F307">
+        <v>2530.3617197931198</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>830</v>
       </c>
       <c r="B308">
         <v>2900.4752688335998</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C308">
+        <v>830</v>
+      </c>
+      <c r="D308">
+        <v>2900.4752688335998</v>
+      </c>
+      <c r="E308">
+        <v>830</v>
+      </c>
+      <c r="F308">
+        <v>2900.4752688335998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>831</v>
       </c>
       <c r="B309">
         <v>2770.4336093346001</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C309">
+        <v>831</v>
+      </c>
+      <c r="D309">
+        <v>2770.4336093346001</v>
+      </c>
+      <c r="E309">
+        <v>831</v>
+      </c>
+      <c r="F309">
+        <v>2770.4336093346001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>832</v>
       </c>
       <c r="B310">
         <v>2570.3732491149399</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C310">
+        <v>832</v>
+      </c>
+      <c r="D310">
+        <v>2570.3732491149399</v>
+      </c>
+      <c r="E310">
+        <v>832</v>
+      </c>
+      <c r="F310">
+        <v>2570.3732491149399</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>833</v>
       </c>
       <c r="B311">
         <v>2540.3645851640599</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C311">
+        <v>833</v>
+      </c>
+      <c r="D311">
+        <v>2540.3645851640599</v>
+      </c>
+      <c r="E311">
+        <v>833</v>
+      </c>
+      <c r="F311">
+        <v>2540.3645851640599</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>834</v>
       </c>
       <c r="B312">
         <v>2120.25397416242</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C312">
+        <v>834</v>
+      </c>
+      <c r="D312">
+        <v>2120.25397416242</v>
+      </c>
+      <c r="E312">
+        <v>834</v>
+      </c>
+      <c r="F312">
+        <v>2120.25397416242</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>835</v>
       </c>
       <c r="B313">
         <v>2290.29634277386</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C313">
+        <v>835</v>
+      </c>
+      <c r="D313">
+        <v>2290.29634277386</v>
+      </c>
+      <c r="E313">
+        <v>835</v>
+      </c>
+      <c r="F313">
+        <v>2290.29634277386</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>836</v>
       </c>
       <c r="B314">
         <v>2020.2305776882699</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C314">
+        <v>836</v>
+      </c>
+      <c r="D314">
+        <v>2020.2305776882699</v>
+      </c>
+      <c r="E314">
+        <v>836</v>
+      </c>
+      <c r="F314">
+        <v>2020.2305776882699</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>837</v>
       </c>
       <c r="B315">
         <v>1930.2104874535701</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C315">
+        <v>837</v>
+      </c>
+      <c r="D315">
+        <v>1930.2104874535701</v>
+      </c>
+      <c r="E315">
+        <v>837</v>
+      </c>
+      <c r="F315">
+        <v>1930.2104874535701</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>838</v>
       </c>
       <c r="B316">
         <v>1980.22153564512</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C316">
+        <v>838</v>
+      </c>
+      <c r="D316">
+        <v>1980.22153564512</v>
+      </c>
+      <c r="E316">
+        <v>838</v>
+      </c>
+      <c r="F316">
+        <v>1980.22153564512</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>839</v>
       </c>
       <c r="B317">
         <v>1720.16717126084</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C317">
+        <v>839</v>
+      </c>
+      <c r="D317">
+        <v>1720.16717126084</v>
+      </c>
+      <c r="E317">
+        <v>839</v>
+      </c>
+      <c r="F317">
+        <v>1720.16717126084</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>840</v>
       </c>
       <c r="B318">
         <v>1710.16523293604</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C318">
+        <v>840</v>
+      </c>
+      <c r="D318">
+        <v>1710.16523293604</v>
+      </c>
+      <c r="E318">
+        <v>840</v>
+      </c>
+      <c r="F318">
+        <v>1710.16523293604</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>841</v>
       </c>
       <c r="B319">
         <v>1830.18923893904</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C319">
+        <v>841</v>
+      </c>
+      <c r="D319">
+        <v>1830.18923893904</v>
+      </c>
+      <c r="E319">
+        <v>841</v>
+      </c>
+      <c r="F319">
+        <v>1830.18923893904</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>842</v>
       </c>
       <c r="B320">
         <v>1420.11393878883</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C320">
+        <v>842</v>
+      </c>
+      <c r="D320">
+        <v>1420.11393878883</v>
+      </c>
+      <c r="E320">
+        <v>842</v>
+      </c>
+      <c r="F320">
+        <v>1420.11393878883</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>843</v>
       </c>
       <c r="B321">
         <v>1900.2039941989999</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C321">
+        <v>843</v>
+      </c>
+      <c r="D321">
+        <v>1900.2039941989999</v>
+      </c>
+      <c r="E321">
+        <v>843</v>
+      </c>
+      <c r="F321">
+        <v>1900.2039941989999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>844</v>
       </c>
       <c r="B322">
         <v>1610.1464714152701</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C322">
+        <v>844</v>
+      </c>
+      <c r="D322">
+        <v>1610.1464714152701</v>
+      </c>
+      <c r="E322">
+        <v>844</v>
+      </c>
+      <c r="F322">
+        <v>1610.1464714152701</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>845</v>
       </c>
       <c r="B323">
         <v>1150.07472772438</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C323">
+        <v>845</v>
+      </c>
+      <c r="D323">
+        <v>1150.07472772438</v>
+      </c>
+      <c r="E323">
+        <v>845</v>
+      </c>
+      <c r="F323">
+        <v>1150.07472772438</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>846</v>
       </c>
       <c r="B324">
         <v>1570.13928332414</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C324">
+        <v>846</v>
+      </c>
+      <c r="D324">
+        <v>1570.13928332414</v>
+      </c>
+      <c r="E324">
+        <v>846</v>
+      </c>
+      <c r="F324">
+        <v>1570.13928332414</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>847</v>
       </c>
       <c r="B325">
         <v>1440.11717111045</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C325">
+        <v>847</v>
+      </c>
+      <c r="D325">
+        <v>1440.11717111045</v>
+      </c>
+      <c r="E325">
+        <v>847</v>
+      </c>
+      <c r="F325">
+        <v>1440.11717111045</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>848</v>
       </c>
       <c r="B326">
         <v>1020.05878711681</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C326">
+        <v>848</v>
+      </c>
+      <c r="D326">
+        <v>1020.05878711681</v>
+      </c>
+      <c r="E326">
+        <v>848</v>
+      </c>
+      <c r="F326">
+        <v>1020.05878711681</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>849</v>
       </c>
       <c r="B327">
         <v>1230.0854867708499</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C327">
+        <v>849</v>
+      </c>
+      <c r="D327">
+        <v>1230.0854867708499</v>
+      </c>
+      <c r="E327">
+        <v>849</v>
+      </c>
+      <c r="F327">
+        <v>1230.0854867708499</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>850</v>
       </c>
       <c r="B328">
+        <v>1390.1091750820699</v>
+      </c>
+      <c r="C328">
+        <v>850</v>
+      </c>
+      <c r="D328">
+        <v>1390.1091750820699</v>
+      </c>
+      <c r="E328">
+        <v>850</v>
+      </c>
+      <c r="F328">
         <v>1390.1091750820699</v>
       </c>
     </row>
